--- a/noise_defense_attack_result/paper_default setting/IMDB/results.xlsx
+++ b/noise_defense_attack_result/paper_default setting/IMDB/results.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="215" uniqueCount="155">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="239" uniqueCount="172">
   <si>
     <t>Models</t>
   </si>
@@ -172,6 +172,30 @@
     <t>93.70%</t>
   </si>
   <si>
+    <t>ROBERTA_FREELB</t>
+  </si>
+  <si>
+    <t>25.40% (72.95%)</t>
+  </si>
+  <si>
+    <t>887.31</t>
+  </si>
+  <si>
+    <t>93.90%</t>
+  </si>
+  <si>
+    <t>ROBERTA_INFOBERT</t>
+  </si>
+  <si>
+    <t>20.90% (78.14%)</t>
+  </si>
+  <si>
+    <t>684.64</t>
+  </si>
+  <si>
+    <t>95.60%</t>
+  </si>
+  <si>
     <t>ROBERTA_TMD</t>
   </si>
   <si>
@@ -229,6 +253,147 @@
     <t>1945.43</t>
   </si>
   <si>
+    <t>textfooler</t>
+  </si>
+  <si>
+    <t>11.90% (87.16%)</t>
+  </si>
+  <si>
+    <t>439.15</t>
+  </si>
+  <si>
+    <t>16.90% (81.20%)</t>
+  </si>
+  <si>
+    <t>529.55</t>
+  </si>
+  <si>
+    <t>89.90%</t>
+  </si>
+  <si>
+    <t>28.90% (68.35%)</t>
+  </si>
+  <si>
+    <t>670.20</t>
+  </si>
+  <si>
+    <t>25.30% (72.47%)</t>
+  </si>
+  <si>
+    <t>645.03</t>
+  </si>
+  <si>
+    <t>45.10% (51.35%)</t>
+  </si>
+  <si>
+    <t>2735.58</t>
+  </si>
+  <si>
+    <t>16.90% (81.28%)</t>
+  </si>
+  <si>
+    <t>1275.00</t>
+  </si>
+  <si>
+    <t>27.30% (69.93%)</t>
+  </si>
+  <si>
+    <t>1866.28</t>
+  </si>
+  <si>
+    <t>30.20% (66.33%)</t>
+  </si>
+  <si>
+    <t>1967.33</t>
+  </si>
+  <si>
+    <t>89.70%</t>
+  </si>
+  <si>
+    <t>21.40% (76.27%)</t>
+  </si>
+  <si>
+    <t>1572.44</t>
+  </si>
+  <si>
+    <t>90.20%</t>
+  </si>
+  <si>
+    <t>28.70% (68.08%)</t>
+  </si>
+  <si>
+    <t>1886.60</t>
+  </si>
+  <si>
+    <t>11.40% (87.79%)</t>
+  </si>
+  <si>
+    <t>456.35</t>
+  </si>
+  <si>
+    <t>93.40%</t>
+  </si>
+  <si>
+    <t>20.20% (77.92%)</t>
+  </si>
+  <si>
+    <t>606.14</t>
+  </si>
+  <si>
+    <t>29.80% (68.30%)</t>
+  </si>
+  <si>
+    <t>726.84</t>
+  </si>
+  <si>
+    <t>94.00%</t>
+  </si>
+  <si>
+    <t>27.60% (70.61%)</t>
+  </si>
+  <si>
+    <t>583.97</t>
+  </si>
+  <si>
+    <t>66.40% (28.83%)</t>
+  </si>
+  <si>
+    <t>3477.32</t>
+  </si>
+  <si>
+    <t>93.30%</t>
+  </si>
+  <si>
+    <t>35.70% (61.61%)</t>
+  </si>
+  <si>
+    <t>2110.53</t>
+  </si>
+  <si>
+    <t>93.00%</t>
+  </si>
+  <si>
+    <t>36.40% (60.56%)</t>
+  </si>
+  <si>
+    <t>2066.70</t>
+  </si>
+  <si>
+    <t>92.30%</t>
+  </si>
+  <si>
+    <t>28.70% (69.14%)</t>
+  </si>
+  <si>
+    <t>1747.67</t>
+  </si>
+  <si>
+    <t>27.70% (69.99%)</t>
+  </si>
+  <si>
+    <t>1673.44</t>
+  </si>
+  <si>
     <t>bertattack</t>
   </si>
   <si>
@@ -319,15 +484,27 @@
     <t>92.50%</t>
   </si>
   <si>
+    <t>23.10% (75.19%)</t>
+  </si>
+  <si>
+    <t>647.98</t>
+  </si>
+  <si>
+    <t>93.10%</t>
+  </si>
+  <si>
+    <t>15.50% (83.53%)</t>
+  </si>
+  <si>
+    <t>518.17</t>
+  </si>
+  <si>
     <t>56.00% (40.36%)</t>
   </si>
   <si>
     <t>3330.08</t>
   </si>
   <si>
-    <t>93.90%</t>
-  </si>
-  <si>
     <t>18.90% (79.83%)</t>
   </si>
   <si>
@@ -353,132 +530,6 @@
   </si>
   <si>
     <t>1434.28</t>
-  </si>
-  <si>
-    <t>textfooler</t>
-  </si>
-  <si>
-    <t>11.90% (87.16%)</t>
-  </si>
-  <si>
-    <t>439.15</t>
-  </si>
-  <si>
-    <t>16.90% (81.20%)</t>
-  </si>
-  <si>
-    <t>529.55</t>
-  </si>
-  <si>
-    <t>89.90%</t>
-  </si>
-  <si>
-    <t>28.90% (68.35%)</t>
-  </si>
-  <si>
-    <t>670.20</t>
-  </si>
-  <si>
-    <t>25.30% (72.47%)</t>
-  </si>
-  <si>
-    <t>645.03</t>
-  </si>
-  <si>
-    <t>45.10% (51.35%)</t>
-  </si>
-  <si>
-    <t>2735.58</t>
-  </si>
-  <si>
-    <t>16.90% (81.28%)</t>
-  </si>
-  <si>
-    <t>1275.00</t>
-  </si>
-  <si>
-    <t>27.30% (69.93%)</t>
-  </si>
-  <si>
-    <t>1866.28</t>
-  </si>
-  <si>
-    <t>30.20% (66.33%)</t>
-  </si>
-  <si>
-    <t>1967.33</t>
-  </si>
-  <si>
-    <t>89.70%</t>
-  </si>
-  <si>
-    <t>21.40% (76.27%)</t>
-  </si>
-  <si>
-    <t>1572.44</t>
-  </si>
-  <si>
-    <t>90.20%</t>
-  </si>
-  <si>
-    <t>28.70% (68.08%)</t>
-  </si>
-  <si>
-    <t>1886.60</t>
-  </si>
-  <si>
-    <t>11.40% (87.79%)</t>
-  </si>
-  <si>
-    <t>456.35</t>
-  </si>
-  <si>
-    <t>93.40%</t>
-  </si>
-  <si>
-    <t>20.20% (77.92%)</t>
-  </si>
-  <si>
-    <t>606.14</t>
-  </si>
-  <si>
-    <t>66.40% (28.83%)</t>
-  </si>
-  <si>
-    <t>3477.32</t>
-  </si>
-  <si>
-    <t>93.30%</t>
-  </si>
-  <si>
-    <t>35.70% (61.61%)</t>
-  </si>
-  <si>
-    <t>2110.53</t>
-  </si>
-  <si>
-    <t>93.00%</t>
-  </si>
-  <si>
-    <t>36.40% (60.56%)</t>
-  </si>
-  <si>
-    <t>2066.70</t>
-  </si>
-  <si>
-    <t>92.30%</t>
-  </si>
-  <si>
-    <t>28.70% (69.14%)</t>
-  </si>
-  <si>
-    <t>1747.67</t>
-  </si>
-  <si>
-    <t>27.70% (69.99%)</t>
-  </si>
-  <si>
-    <t>1673.44</t>
   </si>
 </sst>
 </file>
@@ -813,7 +864,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H19"/>
+  <dimension ref="A1:H21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -841,11 +892,11 @@
       </c>
       <c r="D1" s="1"/>
       <c r="E1" s="1" t="s">
-        <v>71</v>
+        <v>79</v>
       </c>
       <c r="F1" s="1"/>
       <c r="G1" s="1" t="s">
-        <v>113</v>
+        <v>126</v>
       </c>
       <c r="H1" s="1"/>
     </row>
@@ -885,16 +936,16 @@
         <v>7</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>72</v>
+        <v>80</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>73</v>
+        <v>81</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>114</v>
+        <v>127</v>
       </c>
       <c r="H3" s="1" t="s">
-        <v>115</v>
+        <v>128</v>
       </c>
     </row>
     <row r="4" spans="1:8">
@@ -902,7 +953,7 @@
         <v>9</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>118</v>
+        <v>12</v>
       </c>
       <c r="C4" s="1" t="s">
         <v>10</v>
@@ -911,16 +962,16 @@
         <v>11</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>74</v>
+        <v>82</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>75</v>
+        <v>83</v>
       </c>
       <c r="G4" s="1" t="s">
-        <v>116</v>
+        <v>129</v>
       </c>
       <c r="H4" s="1" t="s">
-        <v>117</v>
+        <v>130</v>
       </c>
     </row>
     <row r="5" spans="1:8">
@@ -937,16 +988,16 @@
         <v>15</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>76</v>
+        <v>85</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>77</v>
+        <v>86</v>
       </c>
       <c r="G5" s="1" t="s">
-        <v>119</v>
+        <v>131</v>
       </c>
       <c r="H5" s="1" t="s">
-        <v>120</v>
+        <v>132</v>
       </c>
     </row>
     <row r="6" spans="1:8">
@@ -963,16 +1014,16 @@
         <v>19</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="F6" s="1" t="s">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="G6" s="1" t="s">
-        <v>121</v>
+        <v>133</v>
       </c>
       <c r="H6" s="1" t="s">
-        <v>122</v>
+        <v>134</v>
       </c>
     </row>
     <row r="7" spans="1:8">
@@ -989,16 +1040,16 @@
         <v>23</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>80</v>
+        <v>89</v>
       </c>
       <c r="F7" s="1" t="s">
-        <v>81</v>
+        <v>90</v>
       </c>
       <c r="G7" s="1" t="s">
-        <v>123</v>
+        <v>135</v>
       </c>
       <c r="H7" s="1" t="s">
-        <v>124</v>
+        <v>136</v>
       </c>
     </row>
     <row r="8" spans="1:8">
@@ -1006,7 +1057,7 @@
         <v>25</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>36</v>
+        <v>139</v>
       </c>
       <c r="C8" s="1" t="s">
         <v>26</v>
@@ -1015,16 +1066,16 @@
         <v>27</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>82</v>
+        <v>91</v>
       </c>
       <c r="F8" s="1" t="s">
-        <v>83</v>
+        <v>92</v>
       </c>
       <c r="G8" s="1" t="s">
-        <v>125</v>
+        <v>137</v>
       </c>
       <c r="H8" s="1" t="s">
-        <v>126</v>
+        <v>138</v>
       </c>
     </row>
     <row r="9" spans="1:8">
@@ -1032,7 +1083,7 @@
         <v>29</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>12</v>
+        <v>139</v>
       </c>
       <c r="C9" s="1" t="s">
         <v>30</v>
@@ -1041,16 +1092,16 @@
         <v>31</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>85</v>
+        <v>93</v>
       </c>
       <c r="F9" s="1" t="s">
-        <v>86</v>
+        <v>94</v>
       </c>
       <c r="G9" s="1" t="s">
-        <v>127</v>
+        <v>140</v>
       </c>
       <c r="H9" s="1" t="s">
-        <v>128</v>
+        <v>141</v>
       </c>
     </row>
     <row r="10" spans="1:8">
@@ -1058,7 +1109,7 @@
         <v>33</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>131</v>
+        <v>144</v>
       </c>
       <c r="C10" s="1" t="s">
         <v>34</v>
@@ -1067,16 +1118,16 @@
         <v>35</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>87</v>
+        <v>95</v>
       </c>
       <c r="F10" s="1" t="s">
-        <v>88</v>
+        <v>96</v>
       </c>
       <c r="G10" s="1" t="s">
-        <v>129</v>
+        <v>142</v>
       </c>
       <c r="H10" s="1" t="s">
-        <v>130</v>
+        <v>143</v>
       </c>
     </row>
     <row r="11" spans="1:8">
@@ -1084,7 +1135,7 @@
         <v>37</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>134</v>
+        <v>20</v>
       </c>
       <c r="C11" s="1" t="s">
         <v>38</v>
@@ -1093,16 +1144,16 @@
         <v>39</v>
       </c>
       <c r="E11" s="1" t="s">
-        <v>90</v>
+        <v>98</v>
       </c>
       <c r="F11" s="1" t="s">
-        <v>91</v>
+        <v>99</v>
       </c>
       <c r="G11" s="1" t="s">
-        <v>132</v>
+        <v>145</v>
       </c>
       <c r="H11" s="1" t="s">
-        <v>133</v>
+        <v>146</v>
       </c>
     </row>
     <row r="12" spans="1:8">
@@ -1110,7 +1161,7 @@
         <v>41</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>118</v>
+        <v>149</v>
       </c>
       <c r="C12" s="1" t="s">
         <v>42</v>
@@ -1119,16 +1170,16 @@
         <v>43</v>
       </c>
       <c r="E12" s="1" t="s">
-        <v>92</v>
+        <v>101</v>
       </c>
       <c r="F12" s="1" t="s">
-        <v>93</v>
+        <v>102</v>
       </c>
       <c r="G12" s="1" t="s">
-        <v>135</v>
+        <v>147</v>
       </c>
       <c r="H12" s="1" t="s">
-        <v>136</v>
+        <v>148</v>
       </c>
     </row>
     <row r="13" spans="1:8">
@@ -1136,7 +1187,7 @@
         <v>44</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>139</v>
+        <v>152</v>
       </c>
       <c r="C13" s="1" t="s">
         <v>45</v>
@@ -1145,16 +1196,16 @@
         <v>46</v>
       </c>
       <c r="E13" s="1" t="s">
-        <v>95</v>
+        <v>103</v>
       </c>
       <c r="F13" s="1" t="s">
-        <v>96</v>
+        <v>104</v>
       </c>
       <c r="G13" s="1" t="s">
-        <v>137</v>
+        <v>150</v>
       </c>
       <c r="H13" s="1" t="s">
-        <v>138</v>
+        <v>151</v>
       </c>
     </row>
     <row r="14" spans="1:8">
@@ -1162,7 +1213,7 @@
         <v>48</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>28</v>
+        <v>155</v>
       </c>
       <c r="C14" s="1" t="s">
         <v>49</v>
@@ -1171,16 +1222,16 @@
         <v>50</v>
       </c>
       <c r="E14" s="1" t="s">
-        <v>98</v>
+        <v>106</v>
       </c>
       <c r="F14" s="1" t="s">
-        <v>99</v>
+        <v>107</v>
       </c>
       <c r="G14" s="1" t="s">
-        <v>140</v>
+        <v>153</v>
       </c>
       <c r="H14" s="1" t="s">
-        <v>141</v>
+        <v>154</v>
       </c>
     </row>
     <row r="15" spans="1:8">
@@ -1188,7 +1239,7 @@
         <v>52</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>144</v>
+        <v>158</v>
       </c>
       <c r="C15" s="1" t="s">
         <v>53</v>
@@ -1197,16 +1248,16 @@
         <v>54</v>
       </c>
       <c r="E15" s="1" t="s">
-        <v>101</v>
+        <v>108</v>
       </c>
       <c r="F15" s="1" t="s">
-        <v>102</v>
+        <v>109</v>
       </c>
       <c r="G15" s="1" t="s">
-        <v>142</v>
+        <v>156</v>
       </c>
       <c r="H15" s="1" t="s">
-        <v>143</v>
+        <v>157</v>
       </c>
     </row>
     <row r="16" spans="1:8">
@@ -1214,7 +1265,7 @@
         <v>56</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>147</v>
+        <v>152</v>
       </c>
       <c r="C16" s="1" t="s">
         <v>57</v>
@@ -1223,16 +1274,16 @@
         <v>58</v>
       </c>
       <c r="E16" s="1" t="s">
-        <v>104</v>
+        <v>111</v>
       </c>
       <c r="F16" s="1" t="s">
-        <v>105</v>
+        <v>112</v>
       </c>
       <c r="G16" s="1" t="s">
-        <v>145</v>
+        <v>159</v>
       </c>
       <c r="H16" s="1" t="s">
-        <v>146</v>
+        <v>160</v>
       </c>
     </row>
     <row r="17" spans="1:8">
@@ -1240,7 +1291,7 @@
         <v>60</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>150</v>
+        <v>55</v>
       </c>
       <c r="C17" s="1" t="s">
         <v>61</v>
@@ -1249,16 +1300,16 @@
         <v>62</v>
       </c>
       <c r="E17" s="1" t="s">
-        <v>106</v>
+        <v>113</v>
       </c>
       <c r="F17" s="1" t="s">
-        <v>107</v>
+        <v>114</v>
       </c>
       <c r="G17" s="1" t="s">
-        <v>148</v>
+        <v>161</v>
       </c>
       <c r="H17" s="1" t="s">
-        <v>149</v>
+        <v>162</v>
       </c>
     </row>
     <row r="18" spans="1:8">
@@ -1266,7 +1317,7 @@
         <v>64</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>147</v>
+        <v>51</v>
       </c>
       <c r="C18" s="1" t="s">
         <v>65</v>
@@ -1275,16 +1326,16 @@
         <v>66</v>
       </c>
       <c r="E18" s="1" t="s">
-        <v>108</v>
+        <v>116</v>
       </c>
       <c r="F18" s="1" t="s">
-        <v>109</v>
+        <v>117</v>
       </c>
       <c r="G18" s="1" t="s">
-        <v>151</v>
+        <v>163</v>
       </c>
       <c r="H18" s="1" t="s">
-        <v>152</v>
+        <v>164</v>
       </c>
     </row>
     <row r="19" spans="1:8">
@@ -1292,7 +1343,7 @@
         <v>68</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>150</v>
+        <v>20</v>
       </c>
       <c r="C19" s="1" t="s">
         <v>69</v>
@@ -1301,16 +1352,68 @@
         <v>70</v>
       </c>
       <c r="E19" s="1" t="s">
-        <v>111</v>
+        <v>119</v>
       </c>
       <c r="F19" s="1" t="s">
-        <v>112</v>
+        <v>120</v>
       </c>
       <c r="G19" s="1" t="s">
-        <v>153</v>
+        <v>165</v>
       </c>
       <c r="H19" s="1" t="s">
-        <v>154</v>
+        <v>166</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8">
+      <c r="A20" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="B20" s="1" t="s">
+        <v>169</v>
+      </c>
+      <c r="C20" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="D20" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="E20" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="F20" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="G20" s="1" t="s">
+        <v>167</v>
+      </c>
+      <c r="H20" s="1" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8">
+      <c r="A21" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="B21" s="1" t="s">
+        <v>155</v>
+      </c>
+      <c r="C21" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="D21" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="E21" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="F21" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="G21" s="1" t="s">
+        <v>170</v>
+      </c>
+      <c r="H21" s="1" t="s">
+        <v>171</v>
       </c>
     </row>
   </sheetData>

--- a/noise_defense_attack_result/paper_default setting/IMDB/results.xlsx
+++ b/noise_defense_attack_result/paper_default setting/IMDB/results.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="179" uniqueCount="126">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="335" uniqueCount="235">
   <si>
     <t>Models</t>
   </si>
@@ -22,75 +22,558 @@
     <t>Clean Accuracy (%)</t>
   </si>
   <si>
+    <t>textfooler</t>
+  </si>
+  <si>
+    <t>AuA(%) (ASR(%)↓)</t>
+  </si>
+  <si>
+    <t>Avg. Query↓</t>
+  </si>
+  <si>
+    <t>BERT</t>
+  </si>
+  <si>
+    <t>11.90% (87.16%)</t>
+  </si>
+  <si>
+    <t>439.15</t>
+  </si>
+  <si>
+    <t>92.70%</t>
+  </si>
+  <si>
+    <t>BERT_ASCC</t>
+  </si>
+  <si>
+    <t>16.90% (81.20%)</t>
+  </si>
+  <si>
+    <t>529.55</t>
+  </si>
+  <si>
+    <t>89.90%</t>
+  </si>
+  <si>
+    <t>BERT_FREELB</t>
+  </si>
+  <si>
+    <t>28.90% (68.35%)</t>
+  </si>
+  <si>
+    <t>670.20</t>
+  </si>
+  <si>
+    <t>91.30%</t>
+  </si>
+  <si>
+    <t>BERT_INFOBERT</t>
+  </si>
+  <si>
+    <t>25.30% (72.47%)</t>
+  </si>
+  <si>
+    <t>645.03</t>
+  </si>
+  <si>
+    <t>91.90%</t>
+  </si>
+  <si>
+    <t>BERT_TMD</t>
+  </si>
+  <si>
+    <t>45.10% (51.35%)</t>
+  </si>
+  <si>
+    <t>2735.58</t>
+  </si>
+  <si>
+    <t>BERT_post_att_all_0.1</t>
+  </si>
+  <si>
+    <t>16.90% (81.28%)</t>
+  </si>
+  <si>
+    <t>1275.00</t>
+  </si>
+  <si>
+    <t>90.30%</t>
+  </si>
+  <si>
+    <t>BERT_post_att_all_0.2</t>
+  </si>
+  <si>
+    <t>27.30% (69.93%)</t>
+  </si>
+  <si>
+    <t>1866.28</t>
+  </si>
+  <si>
+    <t>90.80%</t>
+  </si>
+  <si>
+    <t>BERT_post_att_all_0.3</t>
+  </si>
+  <si>
+    <t>30.20% (66.33%)</t>
+  </si>
+  <si>
+    <t>1967.33</t>
+  </si>
+  <si>
+    <t>89.70%</t>
+  </si>
+  <si>
+    <t>BERT_post_att_cls_0.6</t>
+  </si>
+  <si>
+    <t>44.00% (52.74%)</t>
+  </si>
+  <si>
+    <t>2532.98</t>
+  </si>
+  <si>
+    <t>93.10%</t>
+  </si>
+  <si>
+    <t>BERT_post_att_cls_0.7</t>
+  </si>
+  <si>
+    <t>14.30% (84.41%)</t>
+  </si>
+  <si>
+    <t>1248.17</t>
+  </si>
+  <si>
+    <t>91.70%</t>
+  </si>
+  <si>
+    <t>BERT_pre_att_all_0.1</t>
+  </si>
+  <si>
+    <t>21.40% (76.27%)</t>
+  </si>
+  <si>
+    <t>1572.44</t>
+  </si>
+  <si>
+    <t>90.20%</t>
+  </si>
+  <si>
+    <t>BERT_pre_att_all_0.2</t>
+  </si>
+  <si>
+    <t>28.70% (68.08%)</t>
+  </si>
+  <si>
+    <t>1886.60</t>
+  </si>
+  <si>
+    <t>BERT_pre_att_cls_0.4</t>
+  </si>
+  <si>
+    <t>25.60% (71.90%)</t>
+  </si>
+  <si>
+    <t>1781.55</t>
+  </si>
+  <si>
+    <t>91.10%</t>
+  </si>
+  <si>
+    <t>BERT_pre_att_cls_0.5</t>
+  </si>
+  <si>
+    <t>3.00% (96.69%)</t>
+  </si>
+  <si>
+    <t>625.47</t>
+  </si>
+  <si>
+    <t>90.70%</t>
+  </si>
+  <si>
+    <t>ROBERTA</t>
+  </si>
+  <si>
+    <t>11.40% (87.79%)</t>
+  </si>
+  <si>
+    <t>456.35</t>
+  </si>
+  <si>
+    <t>93.40%</t>
+  </si>
+  <si>
+    <t>ROBERTA_ASCC</t>
+  </si>
+  <si>
+    <t>20.20% (77.92%)</t>
+  </si>
+  <si>
+    <t>606.14</t>
+  </si>
+  <si>
+    <t>91.50%</t>
+  </si>
+  <si>
+    <t>ROBERTA_FREELB</t>
+  </si>
+  <si>
+    <t>29.80% (68.30%)</t>
+  </si>
+  <si>
+    <t>726.84</t>
+  </si>
+  <si>
+    <t>94.00%</t>
+  </si>
+  <si>
+    <t>ROBERTA_INFOBERT</t>
+  </si>
+  <si>
+    <t>27.60% (70.61%)</t>
+  </si>
+  <si>
+    <t>583.97</t>
+  </si>
+  <si>
+    <t>93.90%</t>
+  </si>
+  <si>
+    <t>ROBERTA_TMD</t>
+  </si>
+  <si>
+    <t>66.40% (28.83%)</t>
+  </si>
+  <si>
+    <t>3477.32</t>
+  </si>
+  <si>
+    <t>93.30%</t>
+  </si>
+  <si>
+    <t>ROBERTA_post_att_all_0.2</t>
+  </si>
+  <si>
+    <t>35.70% (61.61%)</t>
+  </si>
+  <si>
+    <t>2110.53</t>
+  </si>
+  <si>
+    <t>93.00%</t>
+  </si>
+  <si>
+    <t>ROBERTA_post_att_all_0.3</t>
+  </si>
+  <si>
+    <t>36.40% (60.56%)</t>
+  </si>
+  <si>
+    <t>2066.70</t>
+  </si>
+  <si>
+    <t>92.30%</t>
+  </si>
+  <si>
+    <t>ROBERTA_post_att_cls_0.9</t>
+  </si>
+  <si>
+    <t>59.80% (35.97%)</t>
+  </si>
+  <si>
+    <t>3082.09</t>
+  </si>
+  <si>
+    <t>ROBERTA_pre_att_all_0.1</t>
+  </si>
+  <si>
+    <t>28.70% (69.14%)</t>
+  </si>
+  <si>
+    <t>1747.67</t>
+  </si>
+  <si>
+    <t>ROBERTA_pre_att_all_0.2</t>
+  </si>
+  <si>
+    <t>27.70% (69.99%)</t>
+  </si>
+  <si>
+    <t>1673.44</t>
+  </si>
+  <si>
+    <t>ROBERTA_pre_att_cls_0.3</t>
+  </si>
+  <si>
+    <t>33.30% (64.54%)</t>
+  </si>
+  <si>
+    <t>1927.80</t>
+  </si>
+  <si>
+    <t>ROBERTA_pre_att_cls_0.4</t>
+  </si>
+  <si>
+    <t>25.60% (72.35%)</t>
+  </si>
+  <si>
+    <t>1550.96</t>
+  </si>
+  <si>
+    <t>92.60%</t>
+  </si>
+  <si>
+    <t>ROBERTA_post_att_cls_1</t>
+  </si>
+  <si>
+    <t>60.20% (35.68%)</t>
+  </si>
+  <si>
+    <t>3120.76</t>
+  </si>
+  <si>
+    <t>93.60%</t>
+  </si>
+  <si>
+    <t>textbugger</t>
+  </si>
+  <si>
+    <t>9.20% (90.08%)</t>
+  </si>
+  <si>
+    <t>500.47</t>
+  </si>
+  <si>
+    <t>13.00% (85.68%)</t>
+  </si>
+  <si>
+    <t>597.07</t>
+  </si>
+  <si>
+    <t>25.80% (71.74%)</t>
+  </si>
+  <si>
+    <t>776.31</t>
+  </si>
+  <si>
+    <t>22.50% (75.52%)</t>
+  </si>
+  <si>
+    <t>719.98</t>
+  </si>
+  <si>
+    <t>40.40% (56.47%)</t>
+  </si>
+  <si>
+    <t>3251.52</t>
+  </si>
+  <si>
+    <t>92.80%</t>
+  </si>
+  <si>
+    <t>15.70% (82.84%)</t>
+  </si>
+  <si>
+    <t>1539.77</t>
+  </si>
+  <si>
+    <t>24.70% (72.83%)</t>
+  </si>
+  <si>
+    <t>2353.94</t>
+  </si>
+  <si>
+    <t>90.90%</t>
+  </si>
+  <si>
+    <t>31.50% (65.12%)</t>
+  </si>
+  <si>
+    <t>2612.29</t>
+  </si>
+  <si>
+    <t>39.60% (57.51%)</t>
+  </si>
+  <si>
+    <t>3093.94</t>
+  </si>
+  <si>
+    <t>93.20%</t>
+  </si>
+  <si>
+    <t>12.90% (85.81%)</t>
+  </si>
+  <si>
+    <t>1425.47</t>
+  </si>
+  <si>
+    <t>18.10% (80.20%)</t>
+  </si>
+  <si>
+    <t>1865.94</t>
+  </si>
+  <si>
+    <t>91.40%</t>
+  </si>
+  <si>
+    <t>24.80% (72.69%)</t>
+  </si>
+  <si>
+    <t>2259.91</t>
+  </si>
+  <si>
+    <t>22.40% (75.89%)</t>
+  </si>
+  <si>
+    <t>2153.99</t>
+  </si>
+  <si>
+    <t>92.90%</t>
+  </si>
+  <si>
+    <t>2.00% (97.85%)</t>
+  </si>
+  <si>
+    <t>665.88</t>
+  </si>
+  <si>
+    <t>6.90% (92.63%)</t>
+  </si>
+  <si>
+    <t>517.58</t>
+  </si>
+  <si>
+    <t>14.70% (84.31%)</t>
+  </si>
+  <si>
+    <t>770.35</t>
+  </si>
+  <si>
+    <t>93.70%</t>
+  </si>
+  <si>
+    <t>25.40% (72.95%)</t>
+  </si>
+  <si>
+    <t>887.31</t>
+  </si>
+  <si>
+    <t>20.90% (78.14%)</t>
+  </si>
+  <si>
+    <t>684.64</t>
+  </si>
+  <si>
+    <t>95.60%</t>
+  </si>
+  <si>
+    <t>66.10% (29.30%)</t>
+  </si>
+  <si>
+    <t>4799.56</t>
+  </si>
+  <si>
+    <t>93.50%</t>
+  </si>
+  <si>
+    <t>29.50% (68.55%)</t>
+  </si>
+  <si>
+    <t>2405.76</t>
+  </si>
+  <si>
+    <t>93.80%</t>
+  </si>
+  <si>
+    <t>30.20% (67.17%)</t>
+  </si>
+  <si>
+    <t>2408.47</t>
+  </si>
+  <si>
+    <t>92.00%</t>
+  </si>
+  <si>
+    <t>54.70% (39.76%)</t>
+  </si>
+  <si>
+    <t>3932.65</t>
+  </si>
+  <si>
+    <t>23.60% (74.46%)</t>
+  </si>
+  <si>
+    <t>2086.32</t>
+  </si>
+  <si>
+    <t>92.40%</t>
+  </si>
+  <si>
+    <t>22.40% (75.33%)</t>
+  </si>
+  <si>
+    <t>1945.43</t>
+  </si>
+  <si>
+    <t>27.80% (69.72%)</t>
+  </si>
+  <si>
+    <t>2504.18</t>
+  </si>
+  <si>
+    <t>91.80%</t>
+  </si>
+  <si>
+    <t>20.30% (77.47%)</t>
+  </si>
+  <si>
+    <t>1783.82</t>
+  </si>
+  <si>
+    <t>90.10%</t>
+  </si>
+  <si>
+    <t>56.40% (38.23%)</t>
+  </si>
+  <si>
+    <t>3957.06</t>
+  </si>
+  <si>
     <t>bertattack</t>
   </si>
   <si>
-    <t>AuA(%) (ASR(%)↓)</t>
-  </si>
-  <si>
-    <t>Avg. Query↓</t>
-  </si>
-  <si>
-    <t>BERT</t>
-  </si>
-  <si>
     <t>8.90% (90.40%)</t>
   </si>
   <si>
     <t>366.52</t>
   </si>
   <si>
-    <t>92.70%</t>
-  </si>
-  <si>
-    <t>BERT_ASCC</t>
-  </si>
-  <si>
     <t>7.70% (91.52%)</t>
   </si>
   <si>
     <t>416.50</t>
   </si>
   <si>
-    <t>90.80%</t>
-  </si>
-  <si>
-    <t>BERT_FREELB</t>
-  </si>
-  <si>
     <t>21.80% (76.12%)</t>
   </si>
   <si>
     <t>549.85</t>
   </si>
   <si>
-    <t>91.30%</t>
-  </si>
-  <si>
-    <t>BERT_INFOBERT</t>
-  </si>
-  <si>
     <t>20.90% (77.26%)</t>
   </si>
   <si>
     <t>510.46</t>
   </si>
   <si>
-    <t>91.90%</t>
-  </si>
-  <si>
-    <t>BERT_TMD</t>
-  </si>
-  <si>
     <t>36.20% (60.95%)</t>
   </si>
   <si>
     <t>2464.83</t>
   </si>
   <si>
-    <t>BERT_post_att_all_0.1</t>
-  </si>
-  <si>
     <t>11.00% (87.99%)</t>
   </si>
   <si>
@@ -100,18 +583,12 @@
     <t>91.60%</t>
   </si>
   <si>
-    <t>BERT_post_att_all_0.2</t>
-  </si>
-  <si>
     <t>18.40% (79.91%)</t>
   </si>
   <si>
     <t>1775.39</t>
   </si>
   <si>
-    <t>BERT_post_att_all_0.3</t>
-  </si>
-  <si>
     <t>23.00% (74.59%)</t>
   </si>
   <si>
@@ -121,277 +598,127 @@
     <t>90.50%</t>
   </si>
   <si>
-    <t>BERT_post_att_cls_0.6</t>
-  </si>
-  <si>
     <t>35.10% (61.85%)</t>
   </si>
   <si>
     <t>2432.04</t>
   </si>
   <si>
-    <t>92.00%</t>
-  </si>
-  <si>
-    <t>BERT_post_att_cls_0.7</t>
-  </si>
-  <si>
     <t>13.10% (85.59%)</t>
   </si>
   <si>
     <t>1224.94</t>
   </si>
   <si>
-    <t>90.90%</t>
-  </si>
-  <si>
-    <t>BERT_pre_att_all_0.1</t>
-  </si>
-  <si>
     <t>13.80% (84.98%)</t>
   </si>
   <si>
     <t>1444.61</t>
   </si>
   <si>
-    <t>BERT_pre_att_all_0.2</t>
-  </si>
-  <si>
     <t>18.70% (79.38%)</t>
   </si>
   <si>
     <t>1707.90</t>
   </si>
   <si>
-    <t>90.70%</t>
-  </si>
-  <si>
-    <t>BERT_pre_att_cls_0.4</t>
-  </si>
-  <si>
     <t>21.70% (76.28%)</t>
   </si>
   <si>
     <t>1759.99</t>
   </si>
   <si>
-    <t>91.50%</t>
-  </si>
-  <si>
-    <t>BERT_pre_att_cls_0.5</t>
-  </si>
-  <si>
     <t>1.70% (98.10%)</t>
   </si>
   <si>
     <t>581.18</t>
   </si>
   <si>
-    <t>89.70%</t>
-  </si>
-  <si>
-    <t>textfooler</t>
-  </si>
-  <si>
-    <t>11.90% (87.16%)</t>
-  </si>
-  <si>
-    <t>439.15</t>
-  </si>
-  <si>
-    <t>16.90% (81.20%)</t>
-  </si>
-  <si>
-    <t>529.55</t>
-  </si>
-  <si>
-    <t>89.90%</t>
-  </si>
-  <si>
-    <t>28.90% (68.35%)</t>
-  </si>
-  <si>
-    <t>670.20</t>
-  </si>
-  <si>
-    <t>25.30% (72.47%)</t>
-  </si>
-  <si>
-    <t>645.03</t>
-  </si>
-  <si>
-    <t>45.10% (51.35%)</t>
-  </si>
-  <si>
-    <t>2735.58</t>
-  </si>
-  <si>
-    <t>16.90% (81.28%)</t>
-  </si>
-  <si>
-    <t>1275.00</t>
-  </si>
-  <si>
-    <t>90.30%</t>
-  </si>
-  <si>
-    <t>27.30% (69.93%)</t>
-  </si>
-  <si>
-    <t>1866.28</t>
-  </si>
-  <si>
-    <t>30.20% (66.33%)</t>
-  </si>
-  <si>
-    <t>1967.33</t>
-  </si>
-  <si>
-    <t>44.00% (52.74%)</t>
-  </si>
-  <si>
-    <t>2532.98</t>
-  </si>
-  <si>
-    <t>93.10%</t>
-  </si>
-  <si>
-    <t>14.30% (84.41%)</t>
-  </si>
-  <si>
-    <t>1248.17</t>
-  </si>
-  <si>
-    <t>91.70%</t>
-  </si>
-  <si>
-    <t>21.40% (76.27%)</t>
-  </si>
-  <si>
-    <t>1572.44</t>
-  </si>
-  <si>
-    <t>90.20%</t>
-  </si>
-  <si>
-    <t>28.70% (68.08%)</t>
-  </si>
-  <si>
-    <t>1886.60</t>
-  </si>
-  <si>
-    <t>25.60% (71.90%)</t>
-  </si>
-  <si>
-    <t>1781.55</t>
-  </si>
-  <si>
-    <t>91.10%</t>
-  </si>
-  <si>
-    <t>3.00% (96.69%)</t>
-  </si>
-  <si>
-    <t>625.47</t>
-  </si>
-  <si>
-    <t>textbugger</t>
-  </si>
-  <si>
-    <t>9.20% (90.08%)</t>
-  </si>
-  <si>
-    <t>500.47</t>
-  </si>
-  <si>
-    <t>13.00% (85.68%)</t>
-  </si>
-  <si>
-    <t>597.07</t>
-  </si>
-  <si>
-    <t>25.80% (71.74%)</t>
-  </si>
-  <si>
-    <t>776.31</t>
-  </si>
-  <si>
-    <t>22.50% (75.52%)</t>
-  </si>
-  <si>
-    <t>719.98</t>
-  </si>
-  <si>
-    <t>40.40% (56.47%)</t>
-  </si>
-  <si>
-    <t>3251.52</t>
-  </si>
-  <si>
-    <t>92.80%</t>
-  </si>
-  <si>
-    <t>15.70% (82.84%)</t>
-  </si>
-  <si>
-    <t>1539.77</t>
-  </si>
-  <si>
-    <t>24.70% (72.83%)</t>
-  </si>
-  <si>
-    <t>2353.94</t>
-  </si>
-  <si>
-    <t>31.50% (65.12%)</t>
-  </si>
-  <si>
-    <t>2612.29</t>
-  </si>
-  <si>
-    <t>39.60% (57.51%)</t>
-  </si>
-  <si>
-    <t>3093.94</t>
-  </si>
-  <si>
-    <t>93.20%</t>
-  </si>
-  <si>
-    <t>12.90% (85.81%)</t>
-  </si>
-  <si>
-    <t>1425.47</t>
-  </si>
-  <si>
-    <t>18.10% (80.20%)</t>
-  </si>
-  <si>
-    <t>1865.94</t>
-  </si>
-  <si>
-    <t>91.40%</t>
-  </si>
-  <si>
-    <t>24.80% (72.69%)</t>
-  </si>
-  <si>
-    <t>2259.91</t>
-  </si>
-  <si>
-    <t>22.40% (75.89%)</t>
-  </si>
-  <si>
-    <t>2153.99</t>
-  </si>
-  <si>
-    <t>92.90%</t>
-  </si>
-  <si>
-    <t>2.00% (97.85%)</t>
-  </si>
-  <si>
-    <t>665.88</t>
+    <t>8.20% (91.29%)</t>
+  </si>
+  <si>
+    <t>439.79</t>
+  </si>
+  <si>
+    <t>94.10%</t>
+  </si>
+  <si>
+    <t>15.20% (83.57%)</t>
+  </si>
+  <si>
+    <t>548.34</t>
+  </si>
+  <si>
+    <t>92.50%</t>
+  </si>
+  <si>
+    <t>23.10% (75.19%)</t>
+  </si>
+  <si>
+    <t>647.98</t>
+  </si>
+  <si>
+    <t>15.50% (83.53%)</t>
+  </si>
+  <si>
+    <t>518.17</t>
+  </si>
+  <si>
+    <t>56.00% (40.36%)</t>
+  </si>
+  <si>
+    <t>3330.08</t>
+  </si>
+  <si>
+    <t>18.90% (79.83%)</t>
+  </si>
+  <si>
+    <t>1682.50</t>
+  </si>
+  <si>
+    <t>21.50% (76.61%)</t>
+  </si>
+  <si>
+    <t>1756.51</t>
+  </si>
+  <si>
+    <t>43.10% (53.46%)</t>
+  </si>
+  <si>
+    <t>2806.05</t>
+  </si>
+  <si>
+    <t>15.10% (83.99%)</t>
+  </si>
+  <si>
+    <t>1426.83</t>
+  </si>
+  <si>
+    <t>94.30%</t>
+  </si>
+  <si>
+    <t>16.50% (82.16%)</t>
+  </si>
+  <si>
+    <t>1434.28</t>
+  </si>
+  <si>
+    <t>18.80% (79.76%)</t>
+  </si>
+  <si>
+    <t>1553.59</t>
+  </si>
+  <si>
+    <t>13.10% (85.87%)</t>
+  </si>
+  <si>
+    <t>1240.40</t>
+  </si>
+  <si>
+    <t>48.90% (47.08%)</t>
+  </si>
+  <si>
+    <t>3026.48</t>
   </si>
 </sst>
 </file>
@@ -726,13 +1053,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H16"/>
+  <dimension ref="A1:H29"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="20.42578125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="24.28515625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="17.5703125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="17.140625" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="11.85546875" bestFit="1" customWidth="1"/>
@@ -754,11 +1081,11 @@
       </c>
       <c r="D1" s="1"/>
       <c r="E1" s="1" t="s">
-        <v>58</v>
+        <v>107</v>
       </c>
       <c r="F1" s="1"/>
       <c r="G1" s="1" t="s">
-        <v>93</v>
+        <v>175</v>
       </c>
       <c r="H1" s="1"/>
     </row>
@@ -798,16 +1125,16 @@
         <v>7</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>59</v>
+        <v>108</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>60</v>
+        <v>109</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>94</v>
+        <v>176</v>
       </c>
       <c r="H3" s="1" t="s">
-        <v>95</v>
+        <v>177</v>
       </c>
     </row>
     <row r="4" spans="1:8">
@@ -815,7 +1142,7 @@
         <v>9</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>12</v>
+        <v>31</v>
       </c>
       <c r="C4" s="1" t="s">
         <v>10</v>
@@ -824,16 +1151,16 @@
         <v>11</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>61</v>
+        <v>110</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>62</v>
+        <v>111</v>
       </c>
       <c r="G4" s="1" t="s">
-        <v>96</v>
+        <v>178</v>
       </c>
       <c r="H4" s="1" t="s">
-        <v>97</v>
+        <v>179</v>
       </c>
     </row>
     <row r="5" spans="1:8">
@@ -850,16 +1177,16 @@
         <v>15</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>64</v>
+        <v>112</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>65</v>
+        <v>113</v>
       </c>
       <c r="G5" s="1" t="s">
-        <v>98</v>
+        <v>180</v>
       </c>
       <c r="H5" s="1" t="s">
-        <v>99</v>
+        <v>181</v>
       </c>
     </row>
     <row r="6" spans="1:8">
@@ -876,16 +1203,16 @@
         <v>19</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>66</v>
+        <v>114</v>
       </c>
       <c r="F6" s="1" t="s">
-        <v>67</v>
+        <v>115</v>
       </c>
       <c r="G6" s="1" t="s">
-        <v>100</v>
+        <v>182</v>
       </c>
       <c r="H6" s="1" t="s">
-        <v>101</v>
+        <v>183</v>
       </c>
     </row>
     <row r="7" spans="1:8">
@@ -893,7 +1220,7 @@
         <v>21</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>104</v>
+        <v>8</v>
       </c>
       <c r="C7" s="1" t="s">
         <v>22</v>
@@ -902,16 +1229,16 @@
         <v>23</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>68</v>
+        <v>116</v>
       </c>
       <c r="F7" s="1" t="s">
-        <v>69</v>
+        <v>117</v>
       </c>
       <c r="G7" s="1" t="s">
-        <v>102</v>
+        <v>184</v>
       </c>
       <c r="H7" s="1" t="s">
-        <v>103</v>
+        <v>185</v>
       </c>
     </row>
     <row r="8" spans="1:8">
@@ -919,7 +1246,7 @@
         <v>24</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>53</v>
+        <v>188</v>
       </c>
       <c r="C8" s="1" t="s">
         <v>25</v>
@@ -928,16 +1255,16 @@
         <v>26</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>70</v>
+        <v>119</v>
       </c>
       <c r="F8" s="1" t="s">
-        <v>71</v>
+        <v>120</v>
       </c>
       <c r="G8" s="1" t="s">
-        <v>105</v>
+        <v>186</v>
       </c>
       <c r="H8" s="1" t="s">
-        <v>106</v>
+        <v>187</v>
       </c>
     </row>
     <row r="9" spans="1:8">
@@ -945,7 +1272,7 @@
         <v>28</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>42</v>
+        <v>188</v>
       </c>
       <c r="C9" s="1" t="s">
         <v>29</v>
@@ -954,198 +1281,536 @@
         <v>30</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>73</v>
+        <v>121</v>
       </c>
       <c r="F9" s="1" t="s">
-        <v>74</v>
+        <v>122</v>
       </c>
       <c r="G9" s="1" t="s">
-        <v>107</v>
+        <v>189</v>
       </c>
       <c r="H9" s="1" t="s">
-        <v>108</v>
+        <v>190</v>
       </c>
     </row>
     <row r="10" spans="1:8">
       <c r="A10" s="1" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>72</v>
+        <v>193</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>75</v>
+        <v>124</v>
       </c>
       <c r="F10" s="1" t="s">
-        <v>76</v>
+        <v>125</v>
       </c>
       <c r="G10" s="1" t="s">
-        <v>109</v>
+        <v>191</v>
       </c>
       <c r="H10" s="1" t="s">
-        <v>110</v>
+        <v>192</v>
       </c>
     </row>
     <row r="11" spans="1:8">
       <c r="A11" s="1" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>113</v>
+        <v>159</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="E11" s="1" t="s">
-        <v>77</v>
+        <v>126</v>
       </c>
       <c r="F11" s="1" t="s">
-        <v>78</v>
+        <v>127</v>
       </c>
       <c r="G11" s="1" t="s">
-        <v>111</v>
+        <v>194</v>
       </c>
       <c r="H11" s="1" t="s">
-        <v>112</v>
+        <v>195</v>
       </c>
     </row>
     <row r="12" spans="1:8">
       <c r="A12" s="1" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="B12" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="D12" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="C12" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="D12" s="1" t="s">
-        <v>41</v>
-      </c>
       <c r="E12" s="1" t="s">
-        <v>80</v>
+        <v>129</v>
       </c>
       <c r="F12" s="1" t="s">
-        <v>81</v>
+        <v>130</v>
       </c>
       <c r="G12" s="1" t="s">
-        <v>114</v>
+        <v>196</v>
       </c>
       <c r="H12" s="1" t="s">
-        <v>115</v>
+        <v>197</v>
       </c>
     </row>
     <row r="13" spans="1:8">
       <c r="A13" s="1" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>118</v>
+        <v>20</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="E13" s="1" t="s">
-        <v>83</v>
+        <v>131</v>
       </c>
       <c r="F13" s="1" t="s">
-        <v>84</v>
+        <v>132</v>
       </c>
       <c r="G13" s="1" t="s">
-        <v>116</v>
+        <v>198</v>
       </c>
       <c r="H13" s="1" t="s">
-        <v>117</v>
+        <v>199</v>
       </c>
     </row>
     <row r="14" spans="1:8">
       <c r="A14" s="1" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>12</v>
+        <v>58</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="E14" s="1" t="s">
-        <v>86</v>
+        <v>134</v>
       </c>
       <c r="F14" s="1" t="s">
-        <v>87</v>
+        <v>135</v>
       </c>
       <c r="G14" s="1" t="s">
-        <v>119</v>
+        <v>200</v>
       </c>
       <c r="H14" s="1" t="s">
-        <v>120</v>
+        <v>201</v>
       </c>
     </row>
     <row r="15" spans="1:8">
       <c r="A15" s="1" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>123</v>
+        <v>66</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="E15" s="1" t="s">
-        <v>88</v>
+        <v>136</v>
       </c>
       <c r="F15" s="1" t="s">
-        <v>89</v>
+        <v>137</v>
       </c>
       <c r="G15" s="1" t="s">
-        <v>121</v>
+        <v>202</v>
       </c>
       <c r="H15" s="1" t="s">
-        <v>122</v>
+        <v>203</v>
       </c>
     </row>
     <row r="16" spans="1:8">
       <c r="A16" s="1" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="B16" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="C16" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="D16" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="E16" s="1" t="s">
+        <v>139</v>
+      </c>
+      <c r="F16" s="1" t="s">
+        <v>140</v>
+      </c>
+      <c r="G16" s="1" t="s">
+        <v>204</v>
+      </c>
+      <c r="H16" s="1" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8">
+      <c r="A17" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="B17" s="1" t="s">
+        <v>208</v>
+      </c>
+      <c r="C17" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="D17" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="E17" s="1" t="s">
+        <v>141</v>
+      </c>
+      <c r="F17" s="1" t="s">
+        <v>142</v>
+      </c>
+      <c r="G17" s="1" t="s">
+        <v>206</v>
+      </c>
+      <c r="H17" s="1" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8">
+      <c r="A18" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="B18" s="1" t="s">
+        <v>211</v>
+      </c>
+      <c r="C18" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="D18" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="E18" s="1" t="s">
+        <v>143</v>
+      </c>
+      <c r="F18" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="G18" s="1" t="s">
+        <v>209</v>
+      </c>
+      <c r="H18" s="1" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8">
+      <c r="A19" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="B19" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="C19" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="D19" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="E19" s="1" t="s">
+        <v>146</v>
+      </c>
+      <c r="F19" s="1" t="s">
+        <v>147</v>
+      </c>
+      <c r="G19" s="1" t="s">
+        <v>212</v>
+      </c>
+      <c r="H19" s="1" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8">
+      <c r="A20" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="B20" s="1" t="s">
+        <v>208</v>
+      </c>
+      <c r="C20" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="D20" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="E20" s="1" t="s">
+        <v>148</v>
+      </c>
+      <c r="F20" s="1" t="s">
+        <v>149</v>
+      </c>
+      <c r="G20" s="1" t="s">
+        <v>214</v>
+      </c>
+      <c r="H20" s="1" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8">
+      <c r="A21" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="B21" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="C21" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="D21" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="E21" s="1" t="s">
+        <v>151</v>
+      </c>
+      <c r="F21" s="1" t="s">
+        <v>152</v>
+      </c>
+      <c r="G21" s="1" t="s">
+        <v>216</v>
+      </c>
+      <c r="H21" s="1" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8">
+      <c r="A22" s="1" t="s">
         <v>79</v>
       </c>
-      <c r="C16" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="D16" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="E16" s="1" t="s">
+      <c r="B22" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="C22" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="D22" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="E22" s="1" t="s">
+        <v>154</v>
+      </c>
+      <c r="F22" s="1" t="s">
+        <v>155</v>
+      </c>
+      <c r="G22" s="1" t="s">
+        <v>218</v>
+      </c>
+      <c r="H22" s="1" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8">
+      <c r="A23" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="B23" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="C23" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="D23" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="E23" s="1" t="s">
+        <v>157</v>
+      </c>
+      <c r="F23" s="1" t="s">
+        <v>158</v>
+      </c>
+      <c r="G23" s="1" t="s">
+        <v>220</v>
+      </c>
+      <c r="H23" s="1" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8">
+      <c r="A24" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="B24" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="C24" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="D24" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="E24" s="1" t="s">
+        <v>160</v>
+      </c>
+      <c r="F24" s="1" t="s">
+        <v>161</v>
+      </c>
+      <c r="G24" s="1" t="s">
+        <v>222</v>
+      </c>
+      <c r="H24" s="1" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8">
+      <c r="A25" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="B25" s="1" t="s">
+        <v>226</v>
+      </c>
+      <c r="C25" s="1" t="s">
         <v>91</v>
       </c>
-      <c r="F16" s="1" t="s">
+      <c r="D25" s="1" t="s">
         <v>92</v>
       </c>
-      <c r="G16" s="1" t="s">
-        <v>124</v>
-      </c>
-      <c r="H16" s="1" t="s">
-        <v>125</v>
+      <c r="E25" s="1" t="s">
+        <v>162</v>
+      </c>
+      <c r="F25" s="1" t="s">
+        <v>163</v>
+      </c>
+      <c r="G25" s="1" t="s">
+        <v>224</v>
+      </c>
+      <c r="H25" s="1" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8">
+      <c r="A26" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="B26" s="1" t="s">
+        <v>211</v>
+      </c>
+      <c r="C26" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="D26" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="E26" s="1" t="s">
+        <v>165</v>
+      </c>
+      <c r="F26" s="1" t="s">
+        <v>166</v>
+      </c>
+      <c r="G26" s="1" t="s">
+        <v>227</v>
+      </c>
+      <c r="H26" s="1" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8">
+      <c r="A27" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="B27" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="C27" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="D27" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="E27" s="1" t="s">
+        <v>167</v>
+      </c>
+      <c r="F27" s="1" t="s">
+        <v>168</v>
+      </c>
+      <c r="G27" s="1" t="s">
+        <v>229</v>
+      </c>
+      <c r="H27" s="1" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8">
+      <c r="A28" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="B28" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C28" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="D28" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="E28" s="1" t="s">
+        <v>170</v>
+      </c>
+      <c r="F28" s="1" t="s">
+        <v>171</v>
+      </c>
+      <c r="G28" s="1" t="s">
+        <v>231</v>
+      </c>
+      <c r="H28" s="1" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8">
+      <c r="A29" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="B29" s="1" t="s">
+        <v>164</v>
+      </c>
+      <c r="C29" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="D29" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="E29" s="1" t="s">
+        <v>173</v>
+      </c>
+      <c r="F29" s="1" t="s">
+        <v>174</v>
+      </c>
+      <c r="G29" s="1" t="s">
+        <v>233</v>
+      </c>
+      <c r="H29" s="1" t="s">
+        <v>234</v>
       </c>
     </row>
   </sheetData>

--- a/noise_defense_attack_result/paper_default setting/IMDB/results.xlsx
+++ b/noise_defense_attack_result/paper_default setting/IMDB/results.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="335" uniqueCount="235">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="443" uniqueCount="304">
   <si>
     <t>Models</t>
   </si>
@@ -79,6 +79,30 @@
     <t>91.90%</t>
   </si>
   <si>
+    <t>BERT_MASK</t>
+  </si>
+  <si>
+    <t>35.80% (61.13%)</t>
+  </si>
+  <si>
+    <t>2392.46</t>
+  </si>
+  <si>
+    <t>92.10%</t>
+  </si>
+  <si>
+    <t>BERT_SAFER</t>
+  </si>
+  <si>
+    <t>50.50% (45.64%)</t>
+  </si>
+  <si>
+    <t>1262.35</t>
+  </si>
+  <si>
+    <t>92.90%</t>
+  </si>
+  <si>
     <t>BERT_TMD</t>
   </si>
   <si>
@@ -124,6 +148,18 @@
     <t>89.70%</t>
   </si>
   <si>
+    <t>BERT_post_att_cls_0.55</t>
+  </si>
+  <si>
+    <t>49.10% (47.32%)</t>
+  </si>
+  <si>
+    <t>2759.37</t>
+  </si>
+  <si>
+    <t>93.20%</t>
+  </si>
+  <si>
     <t>BERT_post_att_cls_0.6</t>
   </si>
   <si>
@@ -241,6 +277,27 @@
     <t>93.90%</t>
   </si>
   <si>
+    <t>ROBERTA_MASK</t>
+  </si>
+  <si>
+    <t>54.10% (43.29%)</t>
+  </si>
+  <si>
+    <t>2951.45</t>
+  </si>
+  <si>
+    <t>95.40%</t>
+  </si>
+  <si>
+    <t>ROBERTA_SAFER</t>
+  </si>
+  <si>
+    <t>63.60% (32.27%)</t>
+  </si>
+  <si>
+    <t>1874.79</t>
+  </si>
+  <si>
     <t>ROBERTA_TMD</t>
   </si>
   <si>
@@ -286,6 +343,48 @@
     <t>3082.09</t>
   </si>
   <si>
+    <t>ROBERTA_post_att_cls_1.1</t>
+  </si>
+  <si>
+    <t>63.00% (31.97%)</t>
+  </si>
+  <si>
+    <t>3296.06</t>
+  </si>
+  <si>
+    <t>92.60%</t>
+  </si>
+  <si>
+    <t>ROBERTA_post_att_cls_1.2</t>
+  </si>
+  <si>
+    <t>64.70% (30.20%)</t>
+  </si>
+  <si>
+    <t>3360.81</t>
+  </si>
+  <si>
+    <t>ROBERTA_post_att_cls_1.25</t>
+  </si>
+  <si>
+    <t>63.50% (29.99%)</t>
+  </si>
+  <si>
+    <t>3510.82</t>
+  </si>
+  <si>
+    <t>ROBERTA_post_att_cls_1.3</t>
+  </si>
+  <si>
+    <t>63.70% (32.02%)</t>
+  </si>
+  <si>
+    <t>3255.35</t>
+  </si>
+  <si>
+    <t>93.70%</t>
+  </si>
+  <si>
     <t>ROBERTA_pre_att_all_0.1</t>
   </si>
   <si>
@@ -322,9 +421,6 @@
     <t>1550.96</t>
   </si>
   <si>
-    <t>92.60%</t>
-  </si>
-  <si>
     <t>ROBERTA_post_att_cls_1</t>
   </si>
   <si>
@@ -364,6 +460,21 @@
     <t>719.98</t>
   </si>
   <si>
+    <t>31.00% (66.38%)</t>
+  </si>
+  <si>
+    <t>2740.39</t>
+  </si>
+  <si>
+    <t>92.20%</t>
+  </si>
+  <si>
+    <t>46.10% (50.00%)</t>
+  </si>
+  <si>
+    <t>1455.25</t>
+  </si>
+  <si>
     <t>40.40% (56.47%)</t>
   </si>
   <si>
@@ -394,15 +505,21 @@
     <t>2612.29</t>
   </si>
   <si>
+    <t>42.40% (53.41%)</t>
+  </si>
+  <si>
+    <t>3261.41</t>
+  </si>
+  <si>
+    <t>91.00%</t>
+  </si>
+  <si>
     <t>39.60% (57.51%)</t>
   </si>
   <si>
     <t>3093.94</t>
   </si>
   <si>
-    <t>93.20%</t>
-  </si>
-  <si>
     <t>12.90% (85.81%)</t>
   </si>
   <si>
@@ -430,9 +547,6 @@
     <t>2153.99</t>
   </si>
   <si>
-    <t>92.90%</t>
-  </si>
-  <si>
     <t>2.00% (97.85%)</t>
   </si>
   <si>
@@ -451,9 +565,6 @@
     <t>770.35</t>
   </si>
   <si>
-    <t>93.70%</t>
-  </si>
-  <si>
     <t>25.40% (72.95%)</t>
   </si>
   <si>
@@ -469,6 +580,21 @@
     <t>95.60%</t>
   </si>
   <si>
+    <t>49.40% (47.45%)</t>
+  </si>
+  <si>
+    <t>3611.03</t>
+  </si>
+  <si>
+    <t>62.30% (34.21%)</t>
+  </si>
+  <si>
+    <t>2059.37</t>
+  </si>
+  <si>
+    <t>94.70%</t>
+  </si>
+  <si>
     <t>66.10% (29.30%)</t>
   </si>
   <si>
@@ -502,6 +628,33 @@
     <t>3932.65</t>
   </si>
   <si>
+    <t>59.30% (36.10%)</t>
+  </si>
+  <si>
+    <t>4314.91</t>
+  </si>
+  <si>
+    <t>60.30% (35.58%)</t>
+  </si>
+  <si>
+    <t>4349.38</t>
+  </si>
+  <si>
+    <t>61.40% (32.68%)</t>
+  </si>
+  <si>
+    <t>4357.81</t>
+  </si>
+  <si>
+    <t>91.20%</t>
+  </si>
+  <si>
+    <t>62.20% (33.55%)</t>
+  </si>
+  <si>
+    <t>4205.77</t>
+  </si>
+  <si>
     <t>23.60% (74.46%)</t>
   </si>
   <si>
@@ -568,6 +721,18 @@
     <t>510.46</t>
   </si>
   <si>
+    <t>33.10% (64.33%)</t>
+  </si>
+  <si>
+    <t>2463.24</t>
+  </si>
+  <si>
+    <t>43.10% (52.74%)</t>
+  </si>
+  <si>
+    <t>1133.61</t>
+  </si>
+  <si>
     <t>36.20% (60.95%)</t>
   </si>
   <si>
@@ -598,6 +763,12 @@
     <t>90.50%</t>
   </si>
   <si>
+    <t>40.70% (55.76%)</t>
+  </si>
+  <si>
+    <t>2645.36</t>
+  </si>
+  <si>
     <t>35.10% (61.85%)</t>
   </si>
   <si>
@@ -664,6 +835,18 @@
     <t>518.17</t>
   </si>
   <si>
+    <t>44.20% (53.67%)</t>
+  </si>
+  <si>
+    <t>2706.83</t>
+  </si>
+  <si>
+    <t>54.10% (41.77%)</t>
+  </si>
+  <si>
+    <t>1415.56</t>
+  </si>
+  <si>
     <t>56.00% (40.36%)</t>
   </si>
   <si>
@@ -686,6 +869,30 @@
   </si>
   <si>
     <t>2806.05</t>
+  </si>
+  <si>
+    <t>45.40% (51.29%)</t>
+  </si>
+  <si>
+    <t>3015.13</t>
+  </si>
+  <si>
+    <t>50.20% (45.55%)</t>
+  </si>
+  <si>
+    <t>3274.13</t>
+  </si>
+  <si>
+    <t>50.80% (44.18%)</t>
+  </si>
+  <si>
+    <t>3216.87</t>
+  </si>
+  <si>
+    <t>49.40% (47.00%)</t>
+  </si>
+  <si>
+    <t>3141.88</t>
   </si>
   <si>
     <t>15.10% (83.99%)</t>
@@ -1053,13 +1260,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H29"/>
+  <dimension ref="A1:H38"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="24.28515625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="25.28515625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="17.5703125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="17.140625" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="11.85546875" bestFit="1" customWidth="1"/>
@@ -1081,11 +1288,11 @@
       </c>
       <c r="D1" s="1"/>
       <c r="E1" s="1" t="s">
-        <v>107</v>
+        <v>139</v>
       </c>
       <c r="F1" s="1"/>
       <c r="G1" s="1" t="s">
-        <v>175</v>
+        <v>226</v>
       </c>
       <c r="H1" s="1"/>
     </row>
@@ -1125,16 +1332,16 @@
         <v>7</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>108</v>
+        <v>140</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>109</v>
+        <v>141</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>176</v>
+        <v>227</v>
       </c>
       <c r="H3" s="1" t="s">
-        <v>177</v>
+        <v>228</v>
       </c>
     </row>
     <row r="4" spans="1:8">
@@ -1142,7 +1349,7 @@
         <v>9</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>31</v>
+        <v>39</v>
       </c>
       <c r="C4" s="1" t="s">
         <v>10</v>
@@ -1151,16 +1358,16 @@
         <v>11</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>110</v>
+        <v>142</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>111</v>
+        <v>143</v>
       </c>
       <c r="G4" s="1" t="s">
-        <v>178</v>
+        <v>229</v>
       </c>
       <c r="H4" s="1" t="s">
-        <v>179</v>
+        <v>230</v>
       </c>
     </row>
     <row r="5" spans="1:8">
@@ -1177,16 +1384,16 @@
         <v>15</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>112</v>
+        <v>144</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>113</v>
+        <v>145</v>
       </c>
       <c r="G5" s="1" t="s">
-        <v>180</v>
+        <v>231</v>
       </c>
       <c r="H5" s="1" t="s">
-        <v>181</v>
+        <v>232</v>
       </c>
     </row>
     <row r="6" spans="1:8">
@@ -1203,16 +1410,16 @@
         <v>19</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>114</v>
+        <v>146</v>
       </c>
       <c r="F6" s="1" t="s">
-        <v>115</v>
+        <v>147</v>
       </c>
       <c r="G6" s="1" t="s">
-        <v>182</v>
+        <v>233</v>
       </c>
       <c r="H6" s="1" t="s">
-        <v>183</v>
+        <v>234</v>
       </c>
     </row>
     <row r="7" spans="1:8">
@@ -1220,7 +1427,7 @@
         <v>21</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>8</v>
+        <v>155</v>
       </c>
       <c r="C7" s="1" t="s">
         <v>22</v>
@@ -1229,68 +1436,68 @@
         <v>23</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>116</v>
+        <v>148</v>
       </c>
       <c r="F7" s="1" t="s">
-        <v>117</v>
+        <v>149</v>
       </c>
       <c r="G7" s="1" t="s">
-        <v>184</v>
+        <v>235</v>
       </c>
       <c r="H7" s="1" t="s">
-        <v>185</v>
+        <v>236</v>
       </c>
     </row>
     <row r="8" spans="1:8">
       <c r="A8" s="1" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>188</v>
+        <v>210</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>119</v>
+        <v>151</v>
       </c>
       <c r="F8" s="1" t="s">
-        <v>120</v>
+        <v>152</v>
       </c>
       <c r="G8" s="1" t="s">
-        <v>186</v>
+        <v>237</v>
       </c>
       <c r="H8" s="1" t="s">
-        <v>187</v>
+        <v>238</v>
       </c>
     </row>
     <row r="9" spans="1:8">
       <c r="A9" s="1" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>188</v>
+        <v>8</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>121</v>
+        <v>153</v>
       </c>
       <c r="F9" s="1" t="s">
-        <v>122</v>
+        <v>154</v>
       </c>
       <c r="G9" s="1" t="s">
-        <v>189</v>
+        <v>239</v>
       </c>
       <c r="H9" s="1" t="s">
-        <v>190</v>
+        <v>240</v>
       </c>
     </row>
     <row r="10" spans="1:8">
@@ -1298,7 +1505,7 @@
         <v>32</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>193</v>
+        <v>243</v>
       </c>
       <c r="C10" s="1" t="s">
         <v>33</v>
@@ -1307,16 +1514,16 @@
         <v>34</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>124</v>
+        <v>156</v>
       </c>
       <c r="F10" s="1" t="s">
-        <v>125</v>
+        <v>157</v>
       </c>
       <c r="G10" s="1" t="s">
-        <v>191</v>
+        <v>241</v>
       </c>
       <c r="H10" s="1" t="s">
-        <v>192</v>
+        <v>242</v>
       </c>
     </row>
     <row r="11" spans="1:8">
@@ -1324,7 +1531,7 @@
         <v>36</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>159</v>
+        <v>243</v>
       </c>
       <c r="C11" s="1" t="s">
         <v>37</v>
@@ -1333,16 +1540,16 @@
         <v>38</v>
       </c>
       <c r="E11" s="1" t="s">
-        <v>126</v>
+        <v>158</v>
       </c>
       <c r="F11" s="1" t="s">
-        <v>127</v>
+        <v>159</v>
       </c>
       <c r="G11" s="1" t="s">
-        <v>194</v>
+        <v>244</v>
       </c>
       <c r="H11" s="1" t="s">
-        <v>195</v>
+        <v>245</v>
       </c>
     </row>
     <row r="12" spans="1:8">
@@ -1350,7 +1557,7 @@
         <v>40</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>123</v>
+        <v>248</v>
       </c>
       <c r="C12" s="1" t="s">
         <v>41</v>
@@ -1359,16 +1566,16 @@
         <v>42</v>
       </c>
       <c r="E12" s="1" t="s">
-        <v>129</v>
+        <v>161</v>
       </c>
       <c r="F12" s="1" t="s">
-        <v>130</v>
+        <v>162</v>
       </c>
       <c r="G12" s="1" t="s">
-        <v>196</v>
+        <v>246</v>
       </c>
       <c r="H12" s="1" t="s">
-        <v>197</v>
+        <v>247</v>
       </c>
     </row>
     <row r="13" spans="1:8">
@@ -1376,7 +1583,7 @@
         <v>44</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>20</v>
+        <v>201</v>
       </c>
       <c r="C13" s="1" t="s">
         <v>45</v>
@@ -1385,16 +1592,16 @@
         <v>46</v>
       </c>
       <c r="E13" s="1" t="s">
-        <v>131</v>
+        <v>163</v>
       </c>
       <c r="F13" s="1" t="s">
-        <v>132</v>
+        <v>164</v>
       </c>
       <c r="G13" s="1" t="s">
-        <v>198</v>
+        <v>249</v>
       </c>
       <c r="H13" s="1" t="s">
-        <v>199</v>
+        <v>250</v>
       </c>
     </row>
     <row r="14" spans="1:8">
@@ -1402,7 +1609,7 @@
         <v>48</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>58</v>
+        <v>201</v>
       </c>
       <c r="C14" s="1" t="s">
         <v>49</v>
@@ -1411,94 +1618,94 @@
         <v>50</v>
       </c>
       <c r="E14" s="1" t="s">
-        <v>134</v>
+        <v>166</v>
       </c>
       <c r="F14" s="1" t="s">
-        <v>135</v>
+        <v>167</v>
       </c>
       <c r="G14" s="1" t="s">
-        <v>200</v>
+        <v>251</v>
       </c>
       <c r="H14" s="1" t="s">
-        <v>201</v>
+        <v>252</v>
       </c>
     </row>
     <row r="15" spans="1:8">
       <c r="A15" s="1" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>66</v>
+        <v>160</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="E15" s="1" t="s">
-        <v>136</v>
+        <v>168</v>
       </c>
       <c r="F15" s="1" t="s">
-        <v>137</v>
+        <v>169</v>
       </c>
       <c r="G15" s="1" t="s">
-        <v>202</v>
+        <v>253</v>
       </c>
       <c r="H15" s="1" t="s">
-        <v>203</v>
+        <v>254</v>
       </c>
     </row>
     <row r="16" spans="1:8">
       <c r="A16" s="1" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>35</v>
+        <v>20</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="E16" s="1" t="s">
-        <v>139</v>
+        <v>170</v>
       </c>
       <c r="F16" s="1" t="s">
-        <v>140</v>
+        <v>171</v>
       </c>
       <c r="G16" s="1" t="s">
-        <v>204</v>
+        <v>255</v>
       </c>
       <c r="H16" s="1" t="s">
-        <v>205</v>
+        <v>256</v>
       </c>
     </row>
     <row r="17" spans="1:8">
       <c r="A17" s="1" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>208</v>
+        <v>70</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="D17" s="1" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="E17" s="1" t="s">
-        <v>141</v>
+        <v>173</v>
       </c>
       <c r="F17" s="1" t="s">
-        <v>142</v>
+        <v>174</v>
       </c>
       <c r="G17" s="1" t="s">
-        <v>206</v>
+        <v>257</v>
       </c>
       <c r="H17" s="1" t="s">
-        <v>207</v>
+        <v>258</v>
       </c>
     </row>
     <row r="18" spans="1:8">
@@ -1506,7 +1713,7 @@
         <v>63</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>211</v>
+        <v>78</v>
       </c>
       <c r="C18" s="1" t="s">
         <v>64</v>
@@ -1515,16 +1722,16 @@
         <v>65</v>
       </c>
       <c r="E18" s="1" t="s">
-        <v>143</v>
+        <v>175</v>
       </c>
       <c r="F18" s="1" t="s">
-        <v>144</v>
+        <v>176</v>
       </c>
       <c r="G18" s="1" t="s">
-        <v>209</v>
+        <v>259</v>
       </c>
       <c r="H18" s="1" t="s">
-        <v>210</v>
+        <v>260</v>
       </c>
     </row>
     <row r="19" spans="1:8">
@@ -1532,7 +1739,7 @@
         <v>67</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="C19" s="1" t="s">
         <v>68</v>
@@ -1541,16 +1748,16 @@
         <v>69</v>
       </c>
       <c r="E19" s="1" t="s">
-        <v>146</v>
+        <v>177</v>
       </c>
       <c r="F19" s="1" t="s">
-        <v>147</v>
+        <v>178</v>
       </c>
       <c r="G19" s="1" t="s">
-        <v>212</v>
+        <v>261</v>
       </c>
       <c r="H19" s="1" t="s">
-        <v>213</v>
+        <v>262</v>
       </c>
     </row>
     <row r="20" spans="1:8">
@@ -1558,7 +1765,7 @@
         <v>71</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>208</v>
+        <v>265</v>
       </c>
       <c r="C20" s="1" t="s">
         <v>72</v>
@@ -1567,16 +1774,16 @@
         <v>73</v>
       </c>
       <c r="E20" s="1" t="s">
-        <v>148</v>
+        <v>179</v>
       </c>
       <c r="F20" s="1" t="s">
-        <v>149</v>
+        <v>180</v>
       </c>
       <c r="G20" s="1" t="s">
-        <v>214</v>
+        <v>263</v>
       </c>
       <c r="H20" s="1" t="s">
-        <v>215</v>
+        <v>264</v>
       </c>
     </row>
     <row r="21" spans="1:8">
@@ -1584,7 +1791,7 @@
         <v>75</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>74</v>
+        <v>268</v>
       </c>
       <c r="C21" s="1" t="s">
         <v>76</v>
@@ -1593,16 +1800,16 @@
         <v>77</v>
       </c>
       <c r="E21" s="1" t="s">
-        <v>151</v>
+        <v>181</v>
       </c>
       <c r="F21" s="1" t="s">
-        <v>152</v>
+        <v>182</v>
       </c>
       <c r="G21" s="1" t="s">
-        <v>216</v>
+        <v>266</v>
       </c>
       <c r="H21" s="1" t="s">
-        <v>217</v>
+        <v>267</v>
       </c>
     </row>
     <row r="22" spans="1:8">
@@ -1610,7 +1817,7 @@
         <v>79</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>145</v>
+        <v>51</v>
       </c>
       <c r="C22" s="1" t="s">
         <v>80</v>
@@ -1619,16 +1826,16 @@
         <v>81</v>
       </c>
       <c r="E22" s="1" t="s">
-        <v>154</v>
+        <v>183</v>
       </c>
       <c r="F22" s="1" t="s">
-        <v>155</v>
+        <v>184</v>
       </c>
       <c r="G22" s="1" t="s">
-        <v>218</v>
+        <v>269</v>
       </c>
       <c r="H22" s="1" t="s">
-        <v>219</v>
+        <v>270</v>
       </c>
     </row>
     <row r="23" spans="1:8">
@@ -1636,7 +1843,7 @@
         <v>83</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>20</v>
+        <v>265</v>
       </c>
       <c r="C23" s="1" t="s">
         <v>84</v>
@@ -1645,16 +1852,16 @@
         <v>85</v>
       </c>
       <c r="E23" s="1" t="s">
-        <v>157</v>
+        <v>185</v>
       </c>
       <c r="F23" s="1" t="s">
-        <v>158</v>
+        <v>186</v>
       </c>
       <c r="G23" s="1" t="s">
-        <v>220</v>
+        <v>271</v>
       </c>
       <c r="H23" s="1" t="s">
-        <v>221</v>
+        <v>272</v>
       </c>
     </row>
     <row r="24" spans="1:8">
@@ -1662,7 +1869,7 @@
         <v>87</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>102</v>
+        <v>90</v>
       </c>
       <c r="C24" s="1" t="s">
         <v>88</v>
@@ -1671,146 +1878,380 @@
         <v>89</v>
       </c>
       <c r="E24" s="1" t="s">
-        <v>160</v>
+        <v>188</v>
       </c>
       <c r="F24" s="1" t="s">
-        <v>161</v>
+        <v>189</v>
       </c>
       <c r="G24" s="1" t="s">
-        <v>222</v>
+        <v>273</v>
       </c>
       <c r="H24" s="1" t="s">
-        <v>223</v>
+        <v>274</v>
       </c>
     </row>
     <row r="25" spans="1:8">
       <c r="A25" s="1" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>226</v>
+        <v>28</v>
       </c>
       <c r="C25" s="1" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="D25" s="1" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="E25" s="1" t="s">
-        <v>162</v>
+        <v>190</v>
       </c>
       <c r="F25" s="1" t="s">
-        <v>163</v>
+        <v>191</v>
       </c>
       <c r="G25" s="1" t="s">
-        <v>224</v>
+        <v>275</v>
       </c>
       <c r="H25" s="1" t="s">
-        <v>225</v>
+        <v>276</v>
       </c>
     </row>
     <row r="26" spans="1:8">
       <c r="A26" s="1" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>211</v>
+        <v>86</v>
       </c>
       <c r="C26" s="1" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="D26" s="1" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="E26" s="1" t="s">
-        <v>165</v>
+        <v>193</v>
       </c>
       <c r="F26" s="1" t="s">
-        <v>166</v>
+        <v>194</v>
       </c>
       <c r="G26" s="1" t="s">
-        <v>227</v>
+        <v>277</v>
       </c>
       <c r="H26" s="1" t="s">
-        <v>228</v>
+        <v>278</v>
       </c>
     </row>
     <row r="27" spans="1:8">
       <c r="A27" s="1" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>138</v>
+        <v>122</v>
       </c>
       <c r="C27" s="1" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="D27" s="1" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="E27" s="1" t="s">
-        <v>167</v>
+        <v>196</v>
       </c>
       <c r="F27" s="1" t="s">
-        <v>168</v>
+        <v>197</v>
       </c>
       <c r="G27" s="1" t="s">
-        <v>229</v>
+        <v>279</v>
       </c>
       <c r="H27" s="1" t="s">
-        <v>230</v>
+        <v>280</v>
       </c>
     </row>
     <row r="28" spans="1:8">
       <c r="A28" s="1" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>8</v>
+        <v>20</v>
       </c>
       <c r="C28" s="1" t="s">
-        <v>100</v>
+        <v>103</v>
       </c>
       <c r="D28" s="1" t="s">
-        <v>101</v>
+        <v>104</v>
       </c>
       <c r="E28" s="1" t="s">
-        <v>170</v>
+        <v>199</v>
       </c>
       <c r="F28" s="1" t="s">
-        <v>171</v>
+        <v>200</v>
       </c>
       <c r="G28" s="1" t="s">
-        <v>231</v>
+        <v>281</v>
       </c>
       <c r="H28" s="1" t="s">
-        <v>232</v>
+        <v>282</v>
       </c>
     </row>
     <row r="29" spans="1:8">
       <c r="A29" s="1" t="s">
-        <v>103</v>
+        <v>106</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>164</v>
+        <v>112</v>
       </c>
       <c r="C29" s="1" t="s">
-        <v>104</v>
+        <v>107</v>
       </c>
       <c r="D29" s="1" t="s">
-        <v>105</v>
+        <v>108</v>
       </c>
       <c r="E29" s="1" t="s">
-        <v>173</v>
+        <v>202</v>
       </c>
       <c r="F29" s="1" t="s">
-        <v>174</v>
+        <v>203</v>
       </c>
       <c r="G29" s="1" t="s">
-        <v>233</v>
+        <v>283</v>
       </c>
       <c r="H29" s="1" t="s">
-        <v>234</v>
+        <v>284</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8">
+      <c r="A30" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="B30" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="C30" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="D30" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="E30" s="1" t="s">
+        <v>204</v>
+      </c>
+      <c r="F30" s="1" t="s">
+        <v>205</v>
+      </c>
+      <c r="G30" s="1" t="s">
+        <v>285</v>
+      </c>
+      <c r="H30" s="1" t="s">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="31" spans="1:8">
+      <c r="A31" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="B31" s="1" t="s">
+        <v>150</v>
+      </c>
+      <c r="C31" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="D31" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="E31" s="1" t="s">
+        <v>206</v>
+      </c>
+      <c r="F31" s="1" t="s">
+        <v>207</v>
+      </c>
+      <c r="G31" s="1" t="s">
+        <v>287</v>
+      </c>
+      <c r="H31" s="1" t="s">
+        <v>288</v>
+      </c>
+    </row>
+    <row r="32" spans="1:8">
+      <c r="A32" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="B32" s="1" t="s">
+        <v>165</v>
+      </c>
+      <c r="C32" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="D32" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="E32" s="1" t="s">
+        <v>208</v>
+      </c>
+      <c r="F32" s="1" t="s">
+        <v>209</v>
+      </c>
+      <c r="G32" s="1" t="s">
+        <v>289</v>
+      </c>
+      <c r="H32" s="1" t="s">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="33" spans="1:8">
+      <c r="A33" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="B33" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="C33" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="D33" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="E33" s="1" t="s">
+        <v>211</v>
+      </c>
+      <c r="F33" s="1" t="s">
+        <v>212</v>
+      </c>
+      <c r="G33" s="1" t="s">
+        <v>291</v>
+      </c>
+      <c r="H33" s="1" t="s">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="34" spans="1:8">
+      <c r="A34" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="B34" s="1" t="s">
+        <v>295</v>
+      </c>
+      <c r="C34" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="D34" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="E34" s="1" t="s">
+        <v>213</v>
+      </c>
+      <c r="F34" s="1" t="s">
+        <v>214</v>
+      </c>
+      <c r="G34" s="1" t="s">
+        <v>293</v>
+      </c>
+      <c r="H34" s="1" t="s">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="35" spans="1:8">
+      <c r="A35" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="B35" s="1" t="s">
+        <v>268</v>
+      </c>
+      <c r="C35" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="D35" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="E35" s="1" t="s">
+        <v>216</v>
+      </c>
+      <c r="F35" s="1" t="s">
+        <v>217</v>
+      </c>
+      <c r="G35" s="1" t="s">
+        <v>296</v>
+      </c>
+      <c r="H35" s="1" t="s">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="36" spans="1:8">
+      <c r="A36" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="B36" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="C36" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="D36" s="1" t="s">
+        <v>131</v>
+      </c>
+      <c r="E36" s="1" t="s">
+        <v>218</v>
+      </c>
+      <c r="F36" s="1" t="s">
+        <v>219</v>
+      </c>
+      <c r="G36" s="1" t="s">
+        <v>298</v>
+      </c>
+      <c r="H36" s="1" t="s">
+        <v>299</v>
+      </c>
+    </row>
+    <row r="37" spans="1:8">
+      <c r="A37" s="1" t="s">
+        <v>132</v>
+      </c>
+      <c r="B37" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C37" s="1" t="s">
+        <v>133</v>
+      </c>
+      <c r="D37" s="1" t="s">
+        <v>134</v>
+      </c>
+      <c r="E37" s="1" t="s">
+        <v>221</v>
+      </c>
+      <c r="F37" s="1" t="s">
+        <v>222</v>
+      </c>
+      <c r="G37" s="1" t="s">
+        <v>300</v>
+      </c>
+      <c r="H37" s="1" t="s">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="38" spans="1:8">
+      <c r="A38" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="B38" s="1" t="s">
+        <v>215</v>
+      </c>
+      <c r="C38" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="D38" s="1" t="s">
+        <v>137</v>
+      </c>
+      <c r="E38" s="1" t="s">
+        <v>224</v>
+      </c>
+      <c r="F38" s="1" t="s">
+        <v>225</v>
+      </c>
+      <c r="G38" s="1" t="s">
+        <v>302</v>
+      </c>
+      <c r="H38" s="1" t="s">
+        <v>303</v>
       </c>
     </row>
   </sheetData>

--- a/noise_defense_attack_result/paper_default setting/IMDB/results.xlsx
+++ b/noise_defense_attack_result/paper_default setting/IMDB/results.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="443" uniqueCount="304">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="527" uniqueCount="355">
   <si>
     <t>Models</t>
   </si>
@@ -22,30 +22,792 @@
     <t>Clean Accuracy (%)</t>
   </si>
   <si>
+    <t>bertattack</t>
+  </si>
+  <si>
+    <t>AuA(%) (ASR(%)↓)</t>
+  </si>
+  <si>
+    <t>Avg. Query↓</t>
+  </si>
+  <si>
+    <t>BERT</t>
+  </si>
+  <si>
+    <t>8.90% (90.40%)</t>
+  </si>
+  <si>
+    <t>366.52</t>
+  </si>
+  <si>
+    <t>92.70%</t>
+  </si>
+  <si>
+    <t>BERT_ASCC</t>
+  </si>
+  <si>
+    <t>7.70% (91.52%)</t>
+  </si>
+  <si>
+    <t>416.50</t>
+  </si>
+  <si>
+    <t>90.80%</t>
+  </si>
+  <si>
+    <t>BERT_FREELB</t>
+  </si>
+  <si>
+    <t>21.80% (76.12%)</t>
+  </si>
+  <si>
+    <t>549.85</t>
+  </si>
+  <si>
+    <t>91.30%</t>
+  </si>
+  <si>
+    <t>BERT_INFOBERT</t>
+  </si>
+  <si>
+    <t>20.90% (77.26%)</t>
+  </si>
+  <si>
+    <t>510.46</t>
+  </si>
+  <si>
+    <t>91.90%</t>
+  </si>
+  <si>
+    <t>BERT_MASK</t>
+  </si>
+  <si>
+    <t>33.10% (64.33%)</t>
+  </si>
+  <si>
+    <t>2463.24</t>
+  </si>
+  <si>
+    <t>92.80%</t>
+  </si>
+  <si>
+    <t>BERT_SAFER</t>
+  </si>
+  <si>
+    <t>43.10% (52.74%)</t>
+  </si>
+  <si>
+    <t>1133.61</t>
+  </si>
+  <si>
+    <t>91.20%</t>
+  </si>
+  <si>
+    <t>BERT_TMD</t>
+  </si>
+  <si>
+    <t>36.20% (60.95%)</t>
+  </si>
+  <si>
+    <t>2464.83</t>
+  </si>
+  <si>
+    <t>BERT_input_noise_0.3</t>
+  </si>
+  <si>
+    <t>11.00% (88.00%)</t>
+  </si>
+  <si>
+    <t>983.00</t>
+  </si>
+  <si>
+    <t>91.70%</t>
+  </si>
+  <si>
+    <t>BERT_input_noise_0.4</t>
+  </si>
+  <si>
+    <t>14.10% (84.77%)</t>
+  </si>
+  <si>
+    <t>1305.25</t>
+  </si>
+  <si>
+    <t>92.60%</t>
+  </si>
+  <si>
+    <t>BERT_input_noise_0.5</t>
+  </si>
+  <si>
+    <t>16.40% (82.15%)</t>
+  </si>
+  <si>
+    <t>1507.13</t>
+  </si>
+  <si>
+    <t>BERT_input_noise_0.6</t>
+  </si>
+  <si>
+    <t>19.50% (78.55%)</t>
+  </si>
+  <si>
+    <t>1543.31</t>
+  </si>
+  <si>
+    <t>90.90%</t>
+  </si>
+  <si>
+    <t>BERT_post_att_all_0.1</t>
+  </si>
+  <si>
+    <t>11.00% (87.99%)</t>
+  </si>
+  <si>
+    <t>1096.85</t>
+  </si>
+  <si>
+    <t>91.60%</t>
+  </si>
+  <si>
+    <t>BERT_post_att_all_0.2</t>
+  </si>
+  <si>
+    <t>18.40% (79.91%)</t>
+  </si>
+  <si>
+    <t>1775.39</t>
+  </si>
+  <si>
+    <t>BERT_post_att_all_0.3</t>
+  </si>
+  <si>
+    <t>23.00% (74.59%)</t>
+  </si>
+  <si>
+    <t>1893.96</t>
+  </si>
+  <si>
+    <t>90.50%</t>
+  </si>
+  <si>
+    <t>BERT_post_att_cls_0.55</t>
+  </si>
+  <si>
+    <t>40.70% (55.76%)</t>
+  </si>
+  <si>
+    <t>2645.36</t>
+  </si>
+  <si>
+    <t>92.00%</t>
+  </si>
+  <si>
+    <t>BERT_post_att_cls_0.6</t>
+  </si>
+  <si>
+    <t>35.10% (61.85%)</t>
+  </si>
+  <si>
+    <t>2432.04</t>
+  </si>
+  <si>
+    <t>BERT_post_att_cls_0.7</t>
+  </si>
+  <si>
+    <t>13.10% (85.59%)</t>
+  </si>
+  <si>
+    <t>1224.94</t>
+  </si>
+  <si>
+    <t>BERT_pre_att_all_0.1</t>
+  </si>
+  <si>
+    <t>13.80% (84.98%)</t>
+  </si>
+  <si>
+    <t>1444.61</t>
+  </si>
+  <si>
+    <t>BERT_pre_att_all_0.2</t>
+  </si>
+  <si>
+    <t>18.70% (79.38%)</t>
+  </si>
+  <si>
+    <t>1707.90</t>
+  </si>
+  <si>
+    <t>90.70%</t>
+  </si>
+  <si>
+    <t>BERT_pre_att_cls_0.4</t>
+  </si>
+  <si>
+    <t>21.70% (76.28%)</t>
+  </si>
+  <si>
+    <t>1759.99</t>
+  </si>
+  <si>
+    <t>91.50%</t>
+  </si>
+  <si>
+    <t>BERT_pre_att_cls_0.5</t>
+  </si>
+  <si>
+    <t>1.70% (98.10%)</t>
+  </si>
+  <si>
+    <t>581.18</t>
+  </si>
+  <si>
+    <t>89.70%</t>
+  </si>
+  <si>
+    <t>ROBERTA</t>
+  </si>
+  <si>
+    <t>8.20% (91.29%)</t>
+  </si>
+  <si>
+    <t>439.79</t>
+  </si>
+  <si>
+    <t>94.10%</t>
+  </si>
+  <si>
+    <t>ROBERTA_ASCC</t>
+  </si>
+  <si>
+    <t>15.20% (83.57%)</t>
+  </si>
+  <si>
+    <t>548.34</t>
+  </si>
+  <si>
+    <t>92.50%</t>
+  </si>
+  <si>
+    <t>ROBERTA_FREELB</t>
+  </si>
+  <si>
+    <t>23.10% (75.19%)</t>
+  </si>
+  <si>
+    <t>647.98</t>
+  </si>
+  <si>
+    <t>93.10%</t>
+  </si>
+  <si>
+    <t>ROBERTA_INFOBERT</t>
+  </si>
+  <si>
+    <t>15.50% (83.53%)</t>
+  </si>
+  <si>
+    <t>518.17</t>
+  </si>
+  <si>
+    <t>ROBERTA_MASK</t>
+  </si>
+  <si>
+    <t>44.20% (53.67%)</t>
+  </si>
+  <si>
+    <t>2706.83</t>
+  </si>
+  <si>
+    <t>95.40%</t>
+  </si>
+  <si>
+    <t>ROBERTA_SAFER</t>
+  </si>
+  <si>
+    <t>54.10% (41.77%)</t>
+  </si>
+  <si>
+    <t>1415.56</t>
+  </si>
+  <si>
+    <t>92.90%</t>
+  </si>
+  <si>
+    <t>ROBERTA_TMD</t>
+  </si>
+  <si>
+    <t>56.00% (40.36%)</t>
+  </si>
+  <si>
+    <t>3330.08</t>
+  </si>
+  <si>
+    <t>93.90%</t>
+  </si>
+  <si>
+    <t>ROBERTA_input_noise_0.2</t>
+  </si>
+  <si>
+    <t>13.10% (85.57%)</t>
+  </si>
+  <si>
+    <t>1215.34</t>
+  </si>
+  <si>
+    <t>ROBERTA_input_noise_0.3</t>
+  </si>
+  <si>
+    <t>15.90% (82.29%)</t>
+  </si>
+  <si>
+    <t>1478.49</t>
+  </si>
+  <si>
+    <t>89.80%</t>
+  </si>
+  <si>
+    <t>ROBERTA_input_noise_0.4</t>
+  </si>
+  <si>
+    <t>10.70% (87.92%)</t>
+  </si>
+  <si>
+    <t>1109.41</t>
+  </si>
+  <si>
+    <t>88.60%</t>
+  </si>
+  <si>
+    <t>ROBERTA_post_att_all_0.2</t>
+  </si>
+  <si>
+    <t>18.90% (79.83%)</t>
+  </si>
+  <si>
+    <t>1682.50</t>
+  </si>
+  <si>
+    <t>93.70%</t>
+  </si>
+  <si>
+    <t>ROBERTA_post_att_all_0.3</t>
+  </si>
+  <si>
+    <t>21.50% (76.61%)</t>
+  </si>
+  <si>
+    <t>1756.51</t>
+  </si>
+  <si>
+    <t>ROBERTA_post_att_cls_0.9</t>
+  </si>
+  <si>
+    <t>43.10% (53.46%)</t>
+  </si>
+  <si>
+    <t>2806.05</t>
+  </si>
+  <si>
+    <t>ROBERTA_post_att_cls_1.1</t>
+  </si>
+  <si>
+    <t>45.40% (51.29%)</t>
+  </si>
+  <si>
+    <t>3015.13</t>
+  </si>
+  <si>
+    <t>93.20%</t>
+  </si>
+  <si>
+    <t>ROBERTA_post_att_cls_1.2</t>
+  </si>
+  <si>
+    <t>50.20% (45.55%)</t>
+  </si>
+  <si>
+    <t>3274.13</t>
+  </si>
+  <si>
+    <t>92.20%</t>
+  </si>
+  <si>
+    <t>ROBERTA_post_att_cls_1.25</t>
+  </si>
+  <si>
+    <t>50.80% (44.18%)</t>
+  </si>
+  <si>
+    <t>3216.87</t>
+  </si>
+  <si>
+    <t>91.00%</t>
+  </si>
+  <si>
+    <t>ROBERTA_post_att_cls_1.3</t>
+  </si>
+  <si>
+    <t>49.40% (47.00%)</t>
+  </si>
+  <si>
+    <t>3141.88</t>
+  </si>
+  <si>
+    <t>ROBERTA_pre_att_all_0.1</t>
+  </si>
+  <si>
+    <t>15.10% (83.99%)</t>
+  </si>
+  <si>
+    <t>1426.83</t>
+  </si>
+  <si>
+    <t>94.30%</t>
+  </si>
+  <si>
+    <t>ROBERTA_pre_att_all_0.2</t>
+  </si>
+  <si>
+    <t>16.50% (82.16%)</t>
+  </si>
+  <si>
+    <t>1434.28</t>
+  </si>
+  <si>
+    <t>ROBERTA_pre_att_cls_0.3</t>
+  </si>
+  <si>
+    <t>18.80% (79.76%)</t>
+  </si>
+  <si>
+    <t>1553.59</t>
+  </si>
+  <si>
+    <t>ROBERTA_pre_att_cls_0.4</t>
+  </si>
+  <si>
+    <t>13.10% (85.87%)</t>
+  </si>
+  <si>
+    <t>1240.40</t>
+  </si>
+  <si>
+    <t>ROBERTA_post_att_cls_1</t>
+  </si>
+  <si>
+    <t>48.90% (47.08%)</t>
+  </si>
+  <si>
+    <t>3026.48</t>
+  </si>
+  <si>
+    <t>92.40%</t>
+  </si>
+  <si>
+    <t>textbugger</t>
+  </si>
+  <si>
+    <t>9.20% (90.08%)</t>
+  </si>
+  <si>
+    <t>500.47</t>
+  </si>
+  <si>
+    <t>13.00% (85.68%)</t>
+  </si>
+  <si>
+    <t>597.07</t>
+  </si>
+  <si>
+    <t>25.80% (71.74%)</t>
+  </si>
+  <si>
+    <t>776.31</t>
+  </si>
+  <si>
+    <t>22.50% (75.52%)</t>
+  </si>
+  <si>
+    <t>719.98</t>
+  </si>
+  <si>
+    <t>31.00% (66.38%)</t>
+  </si>
+  <si>
+    <t>2740.39</t>
+  </si>
+  <si>
+    <t>46.10% (50.00%)</t>
+  </si>
+  <si>
+    <t>1455.25</t>
+  </si>
+  <si>
+    <t>40.40% (56.47%)</t>
+  </si>
+  <si>
+    <t>3251.52</t>
+  </si>
+  <si>
+    <t>15.00% (83.75%)</t>
+  </si>
+  <si>
+    <t>1525.88</t>
+  </si>
+  <si>
+    <t>92.30%</t>
+  </si>
+  <si>
+    <t>18.50% (80.00%)</t>
+  </si>
+  <si>
+    <t>1870.99</t>
+  </si>
+  <si>
+    <t>23.10% (74.97%)</t>
+  </si>
+  <si>
+    <t>2189.42</t>
+  </si>
+  <si>
+    <t>23.40% (74.26%)</t>
+  </si>
+  <si>
+    <t>2089.57</t>
+  </si>
+  <si>
+    <t>15.70% (82.84%)</t>
+  </si>
+  <si>
+    <t>1539.77</t>
+  </si>
+  <si>
+    <t>24.70% (72.83%)</t>
+  </si>
+  <si>
+    <t>2353.94</t>
+  </si>
+  <si>
+    <t>31.50% (65.12%)</t>
+  </si>
+  <si>
+    <t>2612.29</t>
+  </si>
+  <si>
+    <t>90.30%</t>
+  </si>
+  <si>
+    <t>42.40% (53.41%)</t>
+  </si>
+  <si>
+    <t>3261.41</t>
+  </si>
+  <si>
+    <t>39.60% (57.51%)</t>
+  </si>
+  <si>
+    <t>3093.94</t>
+  </si>
+  <si>
+    <t>12.90% (85.81%)</t>
+  </si>
+  <si>
+    <t>1425.47</t>
+  </si>
+  <si>
+    <t>18.10% (80.20%)</t>
+  </si>
+  <si>
+    <t>1865.94</t>
+  </si>
+  <si>
+    <t>91.40%</t>
+  </si>
+  <si>
+    <t>24.80% (72.69%)</t>
+  </si>
+  <si>
+    <t>2259.91</t>
+  </si>
+  <si>
+    <t>22.40% (75.89%)</t>
+  </si>
+  <si>
+    <t>2153.99</t>
+  </si>
+  <si>
+    <t>2.00% (97.85%)</t>
+  </si>
+  <si>
+    <t>665.88</t>
+  </si>
+  <si>
+    <t>6.90% (92.63%)</t>
+  </si>
+  <si>
+    <t>517.58</t>
+  </si>
+  <si>
+    <t>93.60%</t>
+  </si>
+  <si>
+    <t>14.70% (84.31%)</t>
+  </si>
+  <si>
+    <t>770.35</t>
+  </si>
+  <si>
+    <t>25.40% (72.95%)</t>
+  </si>
+  <si>
+    <t>887.31</t>
+  </si>
+  <si>
+    <t>20.90% (78.14%)</t>
+  </si>
+  <si>
+    <t>684.64</t>
+  </si>
+  <si>
+    <t>95.60%</t>
+  </si>
+  <si>
+    <t>49.40% (47.45%)</t>
+  </si>
+  <si>
+    <t>3611.03</t>
+  </si>
+  <si>
+    <t>94.00%</t>
+  </si>
+  <si>
+    <t>62.30% (34.21%)</t>
+  </si>
+  <si>
+    <t>2059.37</t>
+  </si>
+  <si>
+    <t>94.70%</t>
+  </si>
+  <si>
+    <t>66.10% (29.30%)</t>
+  </si>
+  <si>
+    <t>4799.56</t>
+  </si>
+  <si>
+    <t>93.50%</t>
+  </si>
+  <si>
+    <t>21.40% (76.46%)</t>
+  </si>
+  <si>
+    <t>1929.56</t>
+  </si>
+  <si>
+    <t>26.80% (70.52%)</t>
+  </si>
+  <si>
+    <t>2345.55</t>
+  </si>
+  <si>
+    <t>13.50% (84.76%)</t>
+  </si>
+  <si>
+    <t>1425.22</t>
+  </si>
+  <si>
+    <t>29.50% (68.55%)</t>
+  </si>
+  <si>
+    <t>2405.76</t>
+  </si>
+  <si>
+    <t>93.80%</t>
+  </si>
+  <si>
+    <t>30.20% (67.17%)</t>
+  </si>
+  <si>
+    <t>2408.47</t>
+  </si>
+  <si>
+    <t>54.70% (39.76%)</t>
+  </si>
+  <si>
+    <t>3932.65</t>
+  </si>
+  <si>
+    <t>59.30% (36.10%)</t>
+  </si>
+  <si>
+    <t>4314.91</t>
+  </si>
+  <si>
+    <t>60.30% (35.58%)</t>
+  </si>
+  <si>
+    <t>4349.38</t>
+  </si>
+  <si>
+    <t>61.40% (32.68%)</t>
+  </si>
+  <si>
+    <t>4357.81</t>
+  </si>
+  <si>
+    <t>62.20% (33.55%)</t>
+  </si>
+  <si>
+    <t>4205.77</t>
+  </si>
+  <si>
+    <t>23.60% (74.46%)</t>
+  </si>
+  <si>
+    <t>2086.32</t>
+  </si>
+  <si>
+    <t>22.40% (75.33%)</t>
+  </si>
+  <si>
+    <t>1945.43</t>
+  </si>
+  <si>
+    <t>27.80% (69.72%)</t>
+  </si>
+  <si>
+    <t>2504.18</t>
+  </si>
+  <si>
+    <t>91.80%</t>
+  </si>
+  <si>
+    <t>20.30% (77.47%)</t>
+  </si>
+  <si>
+    <t>1783.82</t>
+  </si>
+  <si>
+    <t>90.10%</t>
+  </si>
+  <si>
+    <t>56.40% (38.23%)</t>
+  </si>
+  <si>
+    <t>3957.06</t>
+  </si>
+  <si>
     <t>textfooler</t>
   </si>
   <si>
-    <t>AuA(%) (ASR(%)↓)</t>
-  </si>
-  <si>
-    <t>Avg. Query↓</t>
-  </si>
-  <si>
-    <t>BERT</t>
-  </si>
-  <si>
     <t>11.90% (87.16%)</t>
   </si>
   <si>
     <t>439.15</t>
   </si>
   <si>
-    <t>92.70%</t>
-  </si>
-  <si>
-    <t>BERT_ASCC</t>
-  </si>
-  <si>
     <t>16.90% (81.20%)</t>
   </si>
   <si>
@@ -55,33 +817,18 @@
     <t>89.90%</t>
   </si>
   <si>
-    <t>BERT_FREELB</t>
-  </si>
-  <si>
     <t>28.90% (68.35%)</t>
   </si>
   <si>
     <t>670.20</t>
   </si>
   <si>
-    <t>91.30%</t>
-  </si>
-  <si>
-    <t>BERT_INFOBERT</t>
-  </si>
-  <si>
     <t>25.30% (72.47%)</t>
   </si>
   <si>
     <t>645.03</t>
   </si>
   <si>
-    <t>91.90%</t>
-  </si>
-  <si>
-    <t>BERT_MASK</t>
-  </si>
-  <si>
     <t>35.80% (61.13%)</t>
   </si>
   <si>
@@ -91,28 +838,40 @@
     <t>92.10%</t>
   </si>
   <si>
-    <t>BERT_SAFER</t>
-  </si>
-  <si>
     <t>50.50% (45.64%)</t>
   </si>
   <si>
     <t>1262.35</t>
   </si>
   <si>
-    <t>92.90%</t>
-  </si>
-  <si>
-    <t>BERT_TMD</t>
-  </si>
-  <si>
     <t>45.10% (51.35%)</t>
   </si>
   <si>
     <t>2735.58</t>
   </si>
   <si>
-    <t>BERT_post_att_all_0.1</t>
+    <t>18.60% (79.78%)</t>
+  </si>
+  <si>
+    <t>1369.90</t>
+  </si>
+  <si>
+    <t>23.40% (74.62%)</t>
+  </si>
+  <si>
+    <t>1682.84</t>
+  </si>
+  <si>
+    <t>25.60% (72.35%)</t>
+  </si>
+  <si>
+    <t>1794.82</t>
+  </si>
+  <si>
+    <t>27.80% (69.45%)</t>
+  </si>
+  <si>
+    <t>1782.04</t>
   </si>
   <si>
     <t>16.90% (81.28%)</t>
@@ -121,72 +880,36 @@
     <t>1275.00</t>
   </si>
   <si>
-    <t>90.30%</t>
-  </si>
-  <si>
-    <t>BERT_post_att_all_0.2</t>
-  </si>
-  <si>
     <t>27.30% (69.93%)</t>
   </si>
   <si>
     <t>1866.28</t>
   </si>
   <si>
-    <t>90.80%</t>
-  </si>
-  <si>
-    <t>BERT_post_att_all_0.3</t>
-  </si>
-  <si>
     <t>30.20% (66.33%)</t>
   </si>
   <si>
     <t>1967.33</t>
   </si>
   <si>
-    <t>89.70%</t>
-  </si>
-  <si>
-    <t>BERT_post_att_cls_0.55</t>
-  </si>
-  <si>
     <t>49.10% (47.32%)</t>
   </si>
   <si>
     <t>2759.37</t>
   </si>
   <si>
-    <t>93.20%</t>
-  </si>
-  <si>
-    <t>BERT_post_att_cls_0.6</t>
-  </si>
-  <si>
     <t>44.00% (52.74%)</t>
   </si>
   <si>
     <t>2532.98</t>
   </si>
   <si>
-    <t>93.10%</t>
-  </si>
-  <si>
-    <t>BERT_post_att_cls_0.7</t>
-  </si>
-  <si>
     <t>14.30% (84.41%)</t>
   </si>
   <si>
     <t>1248.17</t>
   </si>
   <si>
-    <t>91.70%</t>
-  </si>
-  <si>
-    <t>BERT_pre_att_all_0.1</t>
-  </si>
-  <si>
     <t>21.40% (76.27%)</t>
   </si>
   <si>
@@ -196,18 +919,12 @@
     <t>90.20%</t>
   </si>
   <si>
-    <t>BERT_pre_att_all_0.2</t>
-  </si>
-  <si>
     <t>28.70% (68.08%)</t>
   </si>
   <si>
     <t>1886.60</t>
   </si>
   <si>
-    <t>BERT_pre_att_cls_0.4</t>
-  </si>
-  <si>
     <t>25.60% (71.90%)</t>
   </si>
   <si>
@@ -217,21 +934,12 @@
     <t>91.10%</t>
   </si>
   <si>
-    <t>BERT_pre_att_cls_0.5</t>
-  </si>
-  <si>
     <t>3.00% (96.69%)</t>
   </si>
   <si>
     <t>625.47</t>
   </si>
   <si>
-    <t>90.70%</t>
-  </si>
-  <si>
-    <t>ROBERTA</t>
-  </si>
-  <si>
     <t>11.40% (87.79%)</t>
   </si>
   <si>
@@ -241,66 +949,36 @@
     <t>93.40%</t>
   </si>
   <si>
-    <t>ROBERTA_ASCC</t>
-  </si>
-  <si>
     <t>20.20% (77.92%)</t>
   </si>
   <si>
     <t>606.14</t>
   </si>
   <si>
-    <t>91.50%</t>
-  </si>
-  <si>
-    <t>ROBERTA_FREELB</t>
-  </si>
-  <si>
     <t>29.80% (68.30%)</t>
   </si>
   <si>
     <t>726.84</t>
   </si>
   <si>
-    <t>94.00%</t>
-  </si>
-  <si>
-    <t>ROBERTA_INFOBERT</t>
-  </si>
-  <si>
     <t>27.60% (70.61%)</t>
   </si>
   <si>
     <t>583.97</t>
   </si>
   <si>
-    <t>93.90%</t>
-  </si>
-  <si>
-    <t>ROBERTA_MASK</t>
-  </si>
-  <si>
     <t>54.10% (43.29%)</t>
   </si>
   <si>
     <t>2951.45</t>
   </si>
   <si>
-    <t>95.40%</t>
-  </si>
-  <si>
-    <t>ROBERTA_SAFER</t>
-  </si>
-  <si>
     <t>63.60% (32.27%)</t>
   </si>
   <si>
     <t>1874.79</t>
   </si>
   <si>
-    <t>ROBERTA_TMD</t>
-  </si>
-  <si>
     <t>66.40% (28.83%)</t>
   </si>
   <si>
@@ -310,7 +988,25 @@
     <t>93.30%</t>
   </si>
   <si>
-    <t>ROBERTA_post_att_all_0.2</t>
+    <t>27.30% (70.10%)</t>
+  </si>
+  <si>
+    <t>1830.47</t>
+  </si>
+  <si>
+    <t>29.80% (66.52%)</t>
+  </si>
+  <si>
+    <t>2010.82</t>
+  </si>
+  <si>
+    <t>89.00%</t>
+  </si>
+  <si>
+    <t>15.90% (82.27%)</t>
+  </si>
+  <si>
+    <t>1222.97</t>
   </si>
   <si>
     <t>35.70% (61.61%)</t>
@@ -322,610 +1018,67 @@
     <t>93.00%</t>
   </si>
   <si>
-    <t>ROBERTA_post_att_all_0.3</t>
-  </si>
-  <si>
     <t>36.40% (60.56%)</t>
   </si>
   <si>
     <t>2066.70</t>
   </si>
   <si>
-    <t>92.30%</t>
-  </si>
-  <si>
-    <t>ROBERTA_post_att_cls_0.9</t>
-  </si>
-  <si>
     <t>59.80% (35.97%)</t>
   </si>
   <si>
     <t>3082.09</t>
   </si>
   <si>
-    <t>ROBERTA_post_att_cls_1.1</t>
-  </si>
-  <si>
     <t>63.00% (31.97%)</t>
   </si>
   <si>
     <t>3296.06</t>
   </si>
   <si>
-    <t>92.60%</t>
-  </si>
-  <si>
-    <t>ROBERTA_post_att_cls_1.2</t>
-  </si>
-  <si>
     <t>64.70% (30.20%)</t>
   </si>
   <si>
     <t>3360.81</t>
   </si>
   <si>
-    <t>ROBERTA_post_att_cls_1.25</t>
-  </si>
-  <si>
     <t>63.50% (29.99%)</t>
   </si>
   <si>
     <t>3510.82</t>
   </si>
   <si>
-    <t>ROBERTA_post_att_cls_1.3</t>
-  </si>
-  <si>
     <t>63.70% (32.02%)</t>
   </si>
   <si>
     <t>3255.35</t>
   </si>
   <si>
-    <t>93.70%</t>
-  </si>
-  <si>
-    <t>ROBERTA_pre_att_all_0.1</t>
-  </si>
-  <si>
     <t>28.70% (69.14%)</t>
   </si>
   <si>
     <t>1747.67</t>
   </si>
   <si>
-    <t>ROBERTA_pre_att_all_0.2</t>
-  </si>
-  <si>
     <t>27.70% (69.99%)</t>
   </si>
   <si>
     <t>1673.44</t>
   </si>
   <si>
-    <t>ROBERTA_pre_att_cls_0.3</t>
-  </si>
-  <si>
     <t>33.30% (64.54%)</t>
   </si>
   <si>
     <t>1927.80</t>
   </si>
   <si>
-    <t>ROBERTA_pre_att_cls_0.4</t>
-  </si>
-  <si>
-    <t>25.60% (72.35%)</t>
-  </si>
-  <si>
     <t>1550.96</t>
   </si>
   <si>
-    <t>ROBERTA_post_att_cls_1</t>
-  </si>
-  <si>
     <t>60.20% (35.68%)</t>
   </si>
   <si>
     <t>3120.76</t>
-  </si>
-  <si>
-    <t>93.60%</t>
-  </si>
-  <si>
-    <t>textbugger</t>
-  </si>
-  <si>
-    <t>9.20% (90.08%)</t>
-  </si>
-  <si>
-    <t>500.47</t>
-  </si>
-  <si>
-    <t>13.00% (85.68%)</t>
-  </si>
-  <si>
-    <t>597.07</t>
-  </si>
-  <si>
-    <t>25.80% (71.74%)</t>
-  </si>
-  <si>
-    <t>776.31</t>
-  </si>
-  <si>
-    <t>22.50% (75.52%)</t>
-  </si>
-  <si>
-    <t>719.98</t>
-  </si>
-  <si>
-    <t>31.00% (66.38%)</t>
-  </si>
-  <si>
-    <t>2740.39</t>
-  </si>
-  <si>
-    <t>92.20%</t>
-  </si>
-  <si>
-    <t>46.10% (50.00%)</t>
-  </si>
-  <si>
-    <t>1455.25</t>
-  </si>
-  <si>
-    <t>40.40% (56.47%)</t>
-  </si>
-  <si>
-    <t>3251.52</t>
-  </si>
-  <si>
-    <t>92.80%</t>
-  </si>
-  <si>
-    <t>15.70% (82.84%)</t>
-  </si>
-  <si>
-    <t>1539.77</t>
-  </si>
-  <si>
-    <t>24.70% (72.83%)</t>
-  </si>
-  <si>
-    <t>2353.94</t>
-  </si>
-  <si>
-    <t>90.90%</t>
-  </si>
-  <si>
-    <t>31.50% (65.12%)</t>
-  </si>
-  <si>
-    <t>2612.29</t>
-  </si>
-  <si>
-    <t>42.40% (53.41%)</t>
-  </si>
-  <si>
-    <t>3261.41</t>
-  </si>
-  <si>
-    <t>91.00%</t>
-  </si>
-  <si>
-    <t>39.60% (57.51%)</t>
-  </si>
-  <si>
-    <t>3093.94</t>
-  </si>
-  <si>
-    <t>12.90% (85.81%)</t>
-  </si>
-  <si>
-    <t>1425.47</t>
-  </si>
-  <si>
-    <t>18.10% (80.20%)</t>
-  </si>
-  <si>
-    <t>1865.94</t>
-  </si>
-  <si>
-    <t>91.40%</t>
-  </si>
-  <si>
-    <t>24.80% (72.69%)</t>
-  </si>
-  <si>
-    <t>2259.91</t>
-  </si>
-  <si>
-    <t>22.40% (75.89%)</t>
-  </si>
-  <si>
-    <t>2153.99</t>
-  </si>
-  <si>
-    <t>2.00% (97.85%)</t>
-  </si>
-  <si>
-    <t>665.88</t>
-  </si>
-  <si>
-    <t>6.90% (92.63%)</t>
-  </si>
-  <si>
-    <t>517.58</t>
-  </si>
-  <si>
-    <t>14.70% (84.31%)</t>
-  </si>
-  <si>
-    <t>770.35</t>
-  </si>
-  <si>
-    <t>25.40% (72.95%)</t>
-  </si>
-  <si>
-    <t>887.31</t>
-  </si>
-  <si>
-    <t>20.90% (78.14%)</t>
-  </si>
-  <si>
-    <t>684.64</t>
-  </si>
-  <si>
-    <t>95.60%</t>
-  </si>
-  <si>
-    <t>49.40% (47.45%)</t>
-  </si>
-  <si>
-    <t>3611.03</t>
-  </si>
-  <si>
-    <t>62.30% (34.21%)</t>
-  </si>
-  <si>
-    <t>2059.37</t>
-  </si>
-  <si>
-    <t>94.70%</t>
-  </si>
-  <si>
-    <t>66.10% (29.30%)</t>
-  </si>
-  <si>
-    <t>4799.56</t>
-  </si>
-  <si>
-    <t>93.50%</t>
-  </si>
-  <si>
-    <t>29.50% (68.55%)</t>
-  </si>
-  <si>
-    <t>2405.76</t>
-  </si>
-  <si>
-    <t>93.80%</t>
-  </si>
-  <si>
-    <t>30.20% (67.17%)</t>
-  </si>
-  <si>
-    <t>2408.47</t>
-  </si>
-  <si>
-    <t>92.00%</t>
-  </si>
-  <si>
-    <t>54.70% (39.76%)</t>
-  </si>
-  <si>
-    <t>3932.65</t>
-  </si>
-  <si>
-    <t>59.30% (36.10%)</t>
-  </si>
-  <si>
-    <t>4314.91</t>
-  </si>
-  <si>
-    <t>60.30% (35.58%)</t>
-  </si>
-  <si>
-    <t>4349.38</t>
-  </si>
-  <si>
-    <t>61.40% (32.68%)</t>
-  </si>
-  <si>
-    <t>4357.81</t>
-  </si>
-  <si>
-    <t>91.20%</t>
-  </si>
-  <si>
-    <t>62.20% (33.55%)</t>
-  </si>
-  <si>
-    <t>4205.77</t>
-  </si>
-  <si>
-    <t>23.60% (74.46%)</t>
-  </si>
-  <si>
-    <t>2086.32</t>
-  </si>
-  <si>
-    <t>92.40%</t>
-  </si>
-  <si>
-    <t>22.40% (75.33%)</t>
-  </si>
-  <si>
-    <t>1945.43</t>
-  </si>
-  <si>
-    <t>27.80% (69.72%)</t>
-  </si>
-  <si>
-    <t>2504.18</t>
-  </si>
-  <si>
-    <t>91.80%</t>
-  </si>
-  <si>
-    <t>20.30% (77.47%)</t>
-  </si>
-  <si>
-    <t>1783.82</t>
-  </si>
-  <si>
-    <t>90.10%</t>
-  </si>
-  <si>
-    <t>56.40% (38.23%)</t>
-  </si>
-  <si>
-    <t>3957.06</t>
-  </si>
-  <si>
-    <t>bertattack</t>
-  </si>
-  <si>
-    <t>8.90% (90.40%)</t>
-  </si>
-  <si>
-    <t>366.52</t>
-  </si>
-  <si>
-    <t>7.70% (91.52%)</t>
-  </si>
-  <si>
-    <t>416.50</t>
-  </si>
-  <si>
-    <t>21.80% (76.12%)</t>
-  </si>
-  <si>
-    <t>549.85</t>
-  </si>
-  <si>
-    <t>20.90% (77.26%)</t>
-  </si>
-  <si>
-    <t>510.46</t>
-  </si>
-  <si>
-    <t>33.10% (64.33%)</t>
-  </si>
-  <si>
-    <t>2463.24</t>
-  </si>
-  <si>
-    <t>43.10% (52.74%)</t>
-  </si>
-  <si>
-    <t>1133.61</t>
-  </si>
-  <si>
-    <t>36.20% (60.95%)</t>
-  </si>
-  <si>
-    <t>2464.83</t>
-  </si>
-  <si>
-    <t>11.00% (87.99%)</t>
-  </si>
-  <si>
-    <t>1096.85</t>
-  </si>
-  <si>
-    <t>91.60%</t>
-  </si>
-  <si>
-    <t>18.40% (79.91%)</t>
-  </si>
-  <si>
-    <t>1775.39</t>
-  </si>
-  <si>
-    <t>23.00% (74.59%)</t>
-  </si>
-  <si>
-    <t>1893.96</t>
-  </si>
-  <si>
-    <t>90.50%</t>
-  </si>
-  <si>
-    <t>40.70% (55.76%)</t>
-  </si>
-  <si>
-    <t>2645.36</t>
-  </si>
-  <si>
-    <t>35.10% (61.85%)</t>
-  </si>
-  <si>
-    <t>2432.04</t>
-  </si>
-  <si>
-    <t>13.10% (85.59%)</t>
-  </si>
-  <si>
-    <t>1224.94</t>
-  </si>
-  <si>
-    <t>13.80% (84.98%)</t>
-  </si>
-  <si>
-    <t>1444.61</t>
-  </si>
-  <si>
-    <t>18.70% (79.38%)</t>
-  </si>
-  <si>
-    <t>1707.90</t>
-  </si>
-  <si>
-    <t>21.70% (76.28%)</t>
-  </si>
-  <si>
-    <t>1759.99</t>
-  </si>
-  <si>
-    <t>1.70% (98.10%)</t>
-  </si>
-  <si>
-    <t>581.18</t>
-  </si>
-  <si>
-    <t>8.20% (91.29%)</t>
-  </si>
-  <si>
-    <t>439.79</t>
-  </si>
-  <si>
-    <t>94.10%</t>
-  </si>
-  <si>
-    <t>15.20% (83.57%)</t>
-  </si>
-  <si>
-    <t>548.34</t>
-  </si>
-  <si>
-    <t>92.50%</t>
-  </si>
-  <si>
-    <t>23.10% (75.19%)</t>
-  </si>
-  <si>
-    <t>647.98</t>
-  </si>
-  <si>
-    <t>15.50% (83.53%)</t>
-  </si>
-  <si>
-    <t>518.17</t>
-  </si>
-  <si>
-    <t>44.20% (53.67%)</t>
-  </si>
-  <si>
-    <t>2706.83</t>
-  </si>
-  <si>
-    <t>54.10% (41.77%)</t>
-  </si>
-  <si>
-    <t>1415.56</t>
-  </si>
-  <si>
-    <t>56.00% (40.36%)</t>
-  </si>
-  <si>
-    <t>3330.08</t>
-  </si>
-  <si>
-    <t>18.90% (79.83%)</t>
-  </si>
-  <si>
-    <t>1682.50</t>
-  </si>
-  <si>
-    <t>21.50% (76.61%)</t>
-  </si>
-  <si>
-    <t>1756.51</t>
-  </si>
-  <si>
-    <t>43.10% (53.46%)</t>
-  </si>
-  <si>
-    <t>2806.05</t>
-  </si>
-  <si>
-    <t>45.40% (51.29%)</t>
-  </si>
-  <si>
-    <t>3015.13</t>
-  </si>
-  <si>
-    <t>50.20% (45.55%)</t>
-  </si>
-  <si>
-    <t>3274.13</t>
-  </si>
-  <si>
-    <t>50.80% (44.18%)</t>
-  </si>
-  <si>
-    <t>3216.87</t>
-  </si>
-  <si>
-    <t>49.40% (47.00%)</t>
-  </si>
-  <si>
-    <t>3141.88</t>
-  </si>
-  <si>
-    <t>15.10% (83.99%)</t>
-  </si>
-  <si>
-    <t>1426.83</t>
-  </si>
-  <si>
-    <t>94.30%</t>
-  </si>
-  <si>
-    <t>16.50% (82.16%)</t>
-  </si>
-  <si>
-    <t>1434.28</t>
-  </si>
-  <si>
-    <t>18.80% (79.76%)</t>
-  </si>
-  <si>
-    <t>1553.59</t>
-  </si>
-  <si>
-    <t>13.10% (85.87%)</t>
-  </si>
-  <si>
-    <t>1240.40</t>
-  </si>
-  <si>
-    <t>48.90% (47.08%)</t>
-  </si>
-  <si>
-    <t>3026.48</t>
   </si>
 </sst>
 </file>
@@ -1260,7 +1413,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H38"/>
+  <dimension ref="A1:H45"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1288,11 +1441,11 @@
       </c>
       <c r="D1" s="1"/>
       <c r="E1" s="1" t="s">
-        <v>139</v>
+        <v>163</v>
       </c>
       <c r="F1" s="1"/>
       <c r="G1" s="1" t="s">
-        <v>226</v>
+        <v>261</v>
       </c>
       <c r="H1" s="1"/>
     </row>
@@ -1332,16 +1485,16 @@
         <v>7</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>140</v>
+        <v>164</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>141</v>
+        <v>165</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>227</v>
+        <v>262</v>
       </c>
       <c r="H3" s="1" t="s">
-        <v>228</v>
+        <v>263</v>
       </c>
     </row>
     <row r="4" spans="1:8">
@@ -1349,7 +1502,7 @@
         <v>9</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>39</v>
+        <v>266</v>
       </c>
       <c r="C4" s="1" t="s">
         <v>10</v>
@@ -1358,16 +1511,16 @@
         <v>11</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>142</v>
+        <v>166</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>143</v>
+        <v>167</v>
       </c>
       <c r="G4" s="1" t="s">
-        <v>229</v>
+        <v>264</v>
       </c>
       <c r="H4" s="1" t="s">
-        <v>230</v>
+        <v>265</v>
       </c>
     </row>
     <row r="5" spans="1:8">
@@ -1384,16 +1537,16 @@
         <v>15</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>144</v>
+        <v>168</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>145</v>
+        <v>169</v>
       </c>
       <c r="G5" s="1" t="s">
-        <v>231</v>
+        <v>267</v>
       </c>
       <c r="H5" s="1" t="s">
-        <v>232</v>
+        <v>268</v>
       </c>
     </row>
     <row r="6" spans="1:8">
@@ -1410,16 +1563,16 @@
         <v>19</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>146</v>
+        <v>170</v>
       </c>
       <c r="F6" s="1" t="s">
-        <v>147</v>
+        <v>171</v>
       </c>
       <c r="G6" s="1" t="s">
-        <v>233</v>
+        <v>269</v>
       </c>
       <c r="H6" s="1" t="s">
-        <v>234</v>
+        <v>270</v>
       </c>
     </row>
     <row r="7" spans="1:8">
@@ -1427,7 +1580,7 @@
         <v>21</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>155</v>
+        <v>273</v>
       </c>
       <c r="C7" s="1" t="s">
         <v>22</v>
@@ -1436,16 +1589,16 @@
         <v>23</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>148</v>
+        <v>172</v>
       </c>
       <c r="F7" s="1" t="s">
-        <v>149</v>
+        <v>173</v>
       </c>
       <c r="G7" s="1" t="s">
-        <v>235</v>
+        <v>271</v>
       </c>
       <c r="H7" s="1" t="s">
-        <v>236</v>
+        <v>272</v>
       </c>
     </row>
     <row r="8" spans="1:8">
@@ -1453,7 +1606,7 @@
         <v>25</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>210</v>
+        <v>105</v>
       </c>
       <c r="C8" s="1" t="s">
         <v>26</v>
@@ -1462,16 +1615,16 @@
         <v>27</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>151</v>
+        <v>174</v>
       </c>
       <c r="F8" s="1" t="s">
-        <v>152</v>
+        <v>175</v>
       </c>
       <c r="G8" s="1" t="s">
-        <v>237</v>
+        <v>274</v>
       </c>
       <c r="H8" s="1" t="s">
-        <v>238</v>
+        <v>275</v>
       </c>
     </row>
     <row r="9" spans="1:8">
@@ -1488,16 +1641,16 @@
         <v>31</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>153</v>
+        <v>176</v>
       </c>
       <c r="F9" s="1" t="s">
-        <v>154</v>
+        <v>177</v>
       </c>
       <c r="G9" s="1" t="s">
-        <v>239</v>
+        <v>276</v>
       </c>
       <c r="H9" s="1" t="s">
-        <v>240</v>
+        <v>277</v>
       </c>
     </row>
     <row r="10" spans="1:8">
@@ -1505,7 +1658,7 @@
         <v>32</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>243</v>
+        <v>61</v>
       </c>
       <c r="C10" s="1" t="s">
         <v>33</v>
@@ -1514,16 +1667,16 @@
         <v>34</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>156</v>
+        <v>178</v>
       </c>
       <c r="F10" s="1" t="s">
-        <v>157</v>
+        <v>179</v>
       </c>
       <c r="G10" s="1" t="s">
-        <v>241</v>
+        <v>278</v>
       </c>
       <c r="H10" s="1" t="s">
-        <v>242</v>
+        <v>279</v>
       </c>
     </row>
     <row r="11" spans="1:8">
@@ -1531,7 +1684,7 @@
         <v>36</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>243</v>
+        <v>138</v>
       </c>
       <c r="C11" s="1" t="s">
         <v>37</v>
@@ -1540,16 +1693,16 @@
         <v>38</v>
       </c>
       <c r="E11" s="1" t="s">
-        <v>158</v>
+        <v>181</v>
       </c>
       <c r="F11" s="1" t="s">
-        <v>159</v>
+        <v>182</v>
       </c>
       <c r="G11" s="1" t="s">
-        <v>244</v>
+        <v>280</v>
       </c>
       <c r="H11" s="1" t="s">
-        <v>245</v>
+        <v>281</v>
       </c>
     </row>
     <row r="12" spans="1:8">
@@ -1557,7 +1710,7 @@
         <v>40</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>248</v>
+        <v>39</v>
       </c>
       <c r="C12" s="1" t="s">
         <v>41</v>
@@ -1566,666 +1719,666 @@
         <v>42</v>
       </c>
       <c r="E12" s="1" t="s">
-        <v>161</v>
+        <v>183</v>
       </c>
       <c r="F12" s="1" t="s">
-        <v>162</v>
+        <v>184</v>
       </c>
       <c r="G12" s="1" t="s">
-        <v>246</v>
+        <v>282</v>
       </c>
       <c r="H12" s="1" t="s">
-        <v>247</v>
+        <v>283</v>
       </c>
     </row>
     <row r="13" spans="1:8">
       <c r="A13" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>142</v>
+      </c>
+      <c r="C13" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="B13" s="1" t="s">
-        <v>201</v>
-      </c>
-      <c r="C13" s="1" t="s">
+      <c r="D13" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="D13" s="1" t="s">
-        <v>46</v>
-      </c>
       <c r="E13" s="1" t="s">
-        <v>163</v>
+        <v>185</v>
       </c>
       <c r="F13" s="1" t="s">
-        <v>164</v>
+        <v>186</v>
       </c>
       <c r="G13" s="1" t="s">
-        <v>249</v>
+        <v>284</v>
       </c>
       <c r="H13" s="1" t="s">
-        <v>250</v>
+        <v>285</v>
       </c>
     </row>
     <row r="14" spans="1:8">
       <c r="A14" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>193</v>
+      </c>
+      <c r="C14" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="B14" s="1" t="s">
-        <v>201</v>
-      </c>
-      <c r="C14" s="1" t="s">
+      <c r="D14" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="D14" s="1" t="s">
-        <v>50</v>
-      </c>
       <c r="E14" s="1" t="s">
-        <v>166</v>
+        <v>187</v>
       </c>
       <c r="F14" s="1" t="s">
-        <v>167</v>
+        <v>188</v>
       </c>
       <c r="G14" s="1" t="s">
-        <v>251</v>
+        <v>286</v>
       </c>
       <c r="H14" s="1" t="s">
-        <v>252</v>
+        <v>287</v>
       </c>
     </row>
     <row r="15" spans="1:8">
       <c r="A15" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C15" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="B15" s="1" t="s">
-        <v>160</v>
-      </c>
-      <c r="C15" s="1" t="s">
+      <c r="D15" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="D15" s="1" t="s">
-        <v>54</v>
-      </c>
       <c r="E15" s="1" t="s">
-        <v>168</v>
+        <v>189</v>
       </c>
       <c r="F15" s="1" t="s">
-        <v>169</v>
+        <v>190</v>
       </c>
       <c r="G15" s="1" t="s">
-        <v>253</v>
+        <v>288</v>
       </c>
       <c r="H15" s="1" t="s">
-        <v>254</v>
+        <v>289</v>
       </c>
     </row>
     <row r="16" spans="1:8">
       <c r="A16" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="B16" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="C16" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="D16" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="B16" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="C16" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="D16" s="1" t="s">
-        <v>58</v>
-      </c>
       <c r="E16" s="1" t="s">
-        <v>170</v>
+        <v>191</v>
       </c>
       <c r="F16" s="1" t="s">
-        <v>171</v>
+        <v>192</v>
       </c>
       <c r="G16" s="1" t="s">
-        <v>255</v>
+        <v>290</v>
       </c>
       <c r="H16" s="1" t="s">
-        <v>256</v>
+        <v>291</v>
       </c>
     </row>
     <row r="17" spans="1:8">
       <c r="A17" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="B17" s="1" t="s">
+        <v>134</v>
+      </c>
+      <c r="C17" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="D17" s="1" t="s">
         <v>60</v>
       </c>
-      <c r="B17" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="C17" s="1" t="s">
-        <v>61</v>
-      </c>
-      <c r="D17" s="1" t="s">
-        <v>62</v>
-      </c>
       <c r="E17" s="1" t="s">
-        <v>173</v>
+        <v>194</v>
       </c>
       <c r="F17" s="1" t="s">
-        <v>174</v>
+        <v>195</v>
       </c>
       <c r="G17" s="1" t="s">
-        <v>257</v>
+        <v>292</v>
       </c>
       <c r="H17" s="1" t="s">
-        <v>258</v>
+        <v>293</v>
       </c>
     </row>
     <row r="18" spans="1:8">
       <c r="A18" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="B18" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="C18" s="1" t="s">
         <v>63</v>
       </c>
-      <c r="B18" s="1" t="s">
-        <v>78</v>
-      </c>
-      <c r="C18" s="1" t="s">
+      <c r="D18" s="1" t="s">
         <v>64</v>
       </c>
-      <c r="D18" s="1" t="s">
-        <v>65</v>
-      </c>
       <c r="E18" s="1" t="s">
-        <v>175</v>
+        <v>196</v>
       </c>
       <c r="F18" s="1" t="s">
-        <v>176</v>
+        <v>197</v>
       </c>
       <c r="G18" s="1" t="s">
-        <v>259</v>
+        <v>294</v>
       </c>
       <c r="H18" s="1" t="s">
-        <v>260</v>
+        <v>295</v>
       </c>
     </row>
     <row r="19" spans="1:8">
       <c r="A19" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="B19" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="C19" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="D19" s="1" t="s">
         <v>67</v>
       </c>
-      <c r="B19" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="C19" s="1" t="s">
-        <v>68</v>
-      </c>
-      <c r="D19" s="1" t="s">
-        <v>69</v>
-      </c>
       <c r="E19" s="1" t="s">
-        <v>177</v>
+        <v>198</v>
       </c>
       <c r="F19" s="1" t="s">
-        <v>178</v>
+        <v>199</v>
       </c>
       <c r="G19" s="1" t="s">
-        <v>261</v>
+        <v>296</v>
       </c>
       <c r="H19" s="1" t="s">
-        <v>262</v>
+        <v>297</v>
       </c>
     </row>
     <row r="20" spans="1:8">
       <c r="A20" s="1" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>265</v>
+        <v>300</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="D20" s="1" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="E20" s="1" t="s">
-        <v>179</v>
+        <v>200</v>
       </c>
       <c r="F20" s="1" t="s">
-        <v>180</v>
+        <v>201</v>
       </c>
       <c r="G20" s="1" t="s">
-        <v>263</v>
+        <v>298</v>
       </c>
       <c r="H20" s="1" t="s">
-        <v>264</v>
+        <v>299</v>
       </c>
     </row>
     <row r="21" spans="1:8">
       <c r="A21" s="1" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="D21" s="1" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="E21" s="1" t="s">
-        <v>181</v>
+        <v>203</v>
       </c>
       <c r="F21" s="1" t="s">
-        <v>182</v>
+        <v>204</v>
       </c>
       <c r="G21" s="1" t="s">
-        <v>266</v>
+        <v>301</v>
       </c>
       <c r="H21" s="1" t="s">
-        <v>267</v>
+        <v>302</v>
       </c>
     </row>
     <row r="22" spans="1:8">
       <c r="A22" s="1" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>51</v>
+        <v>305</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="D22" s="1" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="E22" s="1" t="s">
-        <v>183</v>
+        <v>205</v>
       </c>
       <c r="F22" s="1" t="s">
-        <v>184</v>
+        <v>206</v>
       </c>
       <c r="G22" s="1" t="s">
-        <v>269</v>
+        <v>303</v>
       </c>
       <c r="H22" s="1" t="s">
-        <v>270</v>
+        <v>304</v>
       </c>
     </row>
     <row r="23" spans="1:8">
       <c r="A23" s="1" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>265</v>
+        <v>74</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="D23" s="1" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="E23" s="1" t="s">
-        <v>185</v>
+        <v>207</v>
       </c>
       <c r="F23" s="1" t="s">
-        <v>186</v>
+        <v>208</v>
       </c>
       <c r="G23" s="1" t="s">
-        <v>271</v>
+        <v>306</v>
       </c>
       <c r="H23" s="1" t="s">
-        <v>272</v>
+        <v>307</v>
       </c>
     </row>
     <row r="24" spans="1:8">
       <c r="A24" s="1" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>90</v>
+        <v>310</v>
       </c>
       <c r="C24" s="1" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="D24" s="1" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
       <c r="E24" s="1" t="s">
-        <v>188</v>
+        <v>209</v>
       </c>
       <c r="F24" s="1" t="s">
-        <v>189</v>
+        <v>210</v>
       </c>
       <c r="G24" s="1" t="s">
-        <v>273</v>
+        <v>308</v>
       </c>
       <c r="H24" s="1" t="s">
-        <v>274</v>
+        <v>309</v>
       </c>
     </row>
     <row r="25" spans="1:8">
       <c r="A25" s="1" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>28</v>
+        <v>78</v>
       </c>
       <c r="C25" s="1" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
       <c r="D25" s="1" t="s">
-        <v>93</v>
+        <v>89</v>
       </c>
       <c r="E25" s="1" t="s">
-        <v>190</v>
+        <v>212</v>
       </c>
       <c r="F25" s="1" t="s">
-        <v>191</v>
+        <v>213</v>
       </c>
       <c r="G25" s="1" t="s">
-        <v>275</v>
+        <v>311</v>
       </c>
       <c r="H25" s="1" t="s">
-        <v>276</v>
+        <v>312</v>
       </c>
     </row>
     <row r="26" spans="1:8">
       <c r="A26" s="1" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>86</v>
+        <v>221</v>
       </c>
       <c r="C26" s="1" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="D26" s="1" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="E26" s="1" t="s">
-        <v>193</v>
+        <v>214</v>
       </c>
       <c r="F26" s="1" t="s">
-        <v>194</v>
+        <v>215</v>
       </c>
       <c r="G26" s="1" t="s">
-        <v>277</v>
+        <v>313</v>
       </c>
       <c r="H26" s="1" t="s">
-        <v>278</v>
+        <v>314</v>
       </c>
     </row>
     <row r="27" spans="1:8">
       <c r="A27" s="1" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>122</v>
+        <v>109</v>
       </c>
       <c r="C27" s="1" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="D27" s="1" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="E27" s="1" t="s">
-        <v>196</v>
+        <v>216</v>
       </c>
       <c r="F27" s="1" t="s">
-        <v>197</v>
+        <v>217</v>
       </c>
       <c r="G27" s="1" t="s">
-        <v>279</v>
+        <v>315</v>
       </c>
       <c r="H27" s="1" t="s">
-        <v>280</v>
+        <v>316</v>
       </c>
     </row>
     <row r="28" spans="1:8">
       <c r="A28" s="1" t="s">
-        <v>102</v>
+        <v>98</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>20</v>
+        <v>101</v>
       </c>
       <c r="C28" s="1" t="s">
-        <v>103</v>
+        <v>99</v>
       </c>
       <c r="D28" s="1" t="s">
-        <v>104</v>
+        <v>100</v>
       </c>
       <c r="E28" s="1" t="s">
-        <v>199</v>
+        <v>219</v>
       </c>
       <c r="F28" s="1" t="s">
-        <v>200</v>
+        <v>220</v>
       </c>
       <c r="G28" s="1" t="s">
-        <v>281</v>
+        <v>317</v>
       </c>
       <c r="H28" s="1" t="s">
-        <v>282</v>
+        <v>318</v>
       </c>
     </row>
     <row r="29" spans="1:8">
       <c r="A29" s="1" t="s">
-        <v>106</v>
+        <v>102</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="C29" s="1" t="s">
-        <v>107</v>
+        <v>103</v>
       </c>
       <c r="D29" s="1" t="s">
-        <v>108</v>
+        <v>104</v>
       </c>
       <c r="E29" s="1" t="s">
-        <v>202</v>
+        <v>222</v>
       </c>
       <c r="F29" s="1" t="s">
-        <v>203</v>
+        <v>223</v>
       </c>
       <c r="G29" s="1" t="s">
-        <v>283</v>
+        <v>319</v>
       </c>
       <c r="H29" s="1" t="s">
-        <v>284</v>
+        <v>320</v>
       </c>
     </row>
     <row r="30" spans="1:8">
       <c r="A30" s="1" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>47</v>
+        <v>323</v>
       </c>
       <c r="C30" s="1" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="D30" s="1" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="E30" s="1" t="s">
-        <v>204</v>
+        <v>225</v>
       </c>
       <c r="F30" s="1" t="s">
-        <v>205</v>
+        <v>226</v>
       </c>
       <c r="G30" s="1" t="s">
-        <v>285</v>
+        <v>321</v>
       </c>
       <c r="H30" s="1" t="s">
-        <v>286</v>
+        <v>322</v>
       </c>
     </row>
     <row r="31" spans="1:8">
       <c r="A31" s="1" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="B31" s="1" t="s">
-        <v>150</v>
+        <v>16</v>
       </c>
       <c r="C31" s="1" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="D31" s="1" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c r="E31" s="1" t="s">
-        <v>206</v>
+        <v>228</v>
       </c>
       <c r="F31" s="1" t="s">
-        <v>207</v>
+        <v>229</v>
       </c>
       <c r="G31" s="1" t="s">
-        <v>287</v>
+        <v>324</v>
       </c>
       <c r="H31" s="1" t="s">
-        <v>288</v>
+        <v>325</v>
       </c>
     </row>
     <row r="32" spans="1:8">
       <c r="A32" s="1" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="B32" s="1" t="s">
-        <v>165</v>
+        <v>328</v>
       </c>
       <c r="C32" s="1" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
       <c r="D32" s="1" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="E32" s="1" t="s">
-        <v>208</v>
+        <v>230</v>
       </c>
       <c r="F32" s="1" t="s">
-        <v>209</v>
+        <v>231</v>
       </c>
       <c r="G32" s="1" t="s">
-        <v>289</v>
+        <v>326</v>
       </c>
       <c r="H32" s="1" t="s">
-        <v>290</v>
+        <v>327</v>
       </c>
     </row>
     <row r="33" spans="1:8">
       <c r="A33" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="B33" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="C33" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="D33" s="1" t="s">
         <v>119</v>
       </c>
-      <c r="B33" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="C33" s="1" t="s">
-        <v>120</v>
-      </c>
-      <c r="D33" s="1" t="s">
-        <v>121</v>
-      </c>
       <c r="E33" s="1" t="s">
-        <v>211</v>
+        <v>232</v>
       </c>
       <c r="F33" s="1" t="s">
-        <v>212</v>
+        <v>233</v>
       </c>
       <c r="G33" s="1" t="s">
-        <v>291</v>
+        <v>329</v>
       </c>
       <c r="H33" s="1" t="s">
-        <v>292</v>
+        <v>330</v>
       </c>
     </row>
     <row r="34" spans="1:8">
       <c r="A34" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="B34" s="1" t="s">
+        <v>333</v>
+      </c>
+      <c r="C34" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="D34" s="1" t="s">
         <v>123</v>
       </c>
-      <c r="B34" s="1" t="s">
-        <v>295</v>
-      </c>
-      <c r="C34" s="1" t="s">
-        <v>124</v>
-      </c>
-      <c r="D34" s="1" t="s">
-        <v>125</v>
-      </c>
       <c r="E34" s="1" t="s">
-        <v>213</v>
+        <v>234</v>
       </c>
       <c r="F34" s="1" t="s">
-        <v>214</v>
+        <v>235</v>
       </c>
       <c r="G34" s="1" t="s">
-        <v>293</v>
+        <v>331</v>
       </c>
       <c r="H34" s="1" t="s">
-        <v>294</v>
+        <v>332</v>
       </c>
     </row>
     <row r="35" spans="1:8">
       <c r="A35" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="B35" s="1" t="s">
+        <v>180</v>
+      </c>
+      <c r="C35" s="1" t="s">
         <v>126</v>
       </c>
-      <c r="B35" s="1" t="s">
-        <v>268</v>
-      </c>
-      <c r="C35" s="1" t="s">
+      <c r="D35" s="1" t="s">
         <v>127</v>
       </c>
-      <c r="D35" s="1" t="s">
-        <v>128</v>
-      </c>
       <c r="E35" s="1" t="s">
-        <v>216</v>
+        <v>237</v>
       </c>
       <c r="F35" s="1" t="s">
-        <v>217</v>
+        <v>238</v>
       </c>
       <c r="G35" s="1" t="s">
-        <v>296</v>
+        <v>334</v>
       </c>
       <c r="H35" s="1" t="s">
-        <v>297</v>
+        <v>335</v>
       </c>
     </row>
     <row r="36" spans="1:8">
       <c r="A36" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="B36" s="1" t="s">
+        <v>310</v>
+      </c>
+      <c r="C36" s="1" t="s">
         <v>129</v>
       </c>
-      <c r="B36" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="C36" s="1" t="s">
+      <c r="D36" s="1" t="s">
         <v>130</v>
       </c>
-      <c r="D36" s="1" t="s">
-        <v>131</v>
-      </c>
       <c r="E36" s="1" t="s">
-        <v>218</v>
+        <v>239</v>
       </c>
       <c r="F36" s="1" t="s">
-        <v>219</v>
+        <v>240</v>
       </c>
       <c r="G36" s="1" t="s">
-        <v>298</v>
+        <v>336</v>
       </c>
       <c r="H36" s="1" t="s">
-        <v>299</v>
+        <v>337</v>
       </c>
     </row>
     <row r="37" spans="1:8">
       <c r="A37" s="1" t="s">
+        <v>131</v>
+      </c>
+      <c r="B37" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="C37" s="1" t="s">
         <v>132</v>
       </c>
-      <c r="B37" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="C37" s="1" t="s">
+      <c r="D37" s="1" t="s">
         <v>133</v>
       </c>
-      <c r="D37" s="1" t="s">
-        <v>134</v>
-      </c>
       <c r="E37" s="1" t="s">
-        <v>221</v>
+        <v>241</v>
       </c>
       <c r="F37" s="1" t="s">
-        <v>222</v>
+        <v>242</v>
       </c>
       <c r="G37" s="1" t="s">
-        <v>300</v>
+        <v>338</v>
       </c>
       <c r="H37" s="1" t="s">
-        <v>301</v>
+        <v>339</v>
       </c>
     </row>
     <row r="38" spans="1:8">
@@ -2233,7 +2386,7 @@
         <v>135</v>
       </c>
       <c r="B38" s="1" t="s">
-        <v>215</v>
+        <v>8</v>
       </c>
       <c r="C38" s="1" t="s">
         <v>136</v>
@@ -2242,16 +2395,198 @@
         <v>137</v>
       </c>
       <c r="E38" s="1" t="s">
-        <v>224</v>
+        <v>243</v>
       </c>
       <c r="F38" s="1" t="s">
-        <v>225</v>
+        <v>244</v>
       </c>
       <c r="G38" s="1" t="s">
-        <v>302</v>
+        <v>340</v>
       </c>
       <c r="H38" s="1" t="s">
-        <v>303</v>
+        <v>341</v>
+      </c>
+    </row>
+    <row r="39" spans="1:8">
+      <c r="A39" s="1" t="s">
+        <v>139</v>
+      </c>
+      <c r="B39" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="C39" s="1" t="s">
+        <v>140</v>
+      </c>
+      <c r="D39" s="1" t="s">
+        <v>141</v>
+      </c>
+      <c r="E39" s="1" t="s">
+        <v>245</v>
+      </c>
+      <c r="F39" s="1" t="s">
+        <v>246</v>
+      </c>
+      <c r="G39" s="1" t="s">
+        <v>342</v>
+      </c>
+      <c r="H39" s="1" t="s">
+        <v>343</v>
+      </c>
+    </row>
+    <row r="40" spans="1:8">
+      <c r="A40" s="1" t="s">
+        <v>143</v>
+      </c>
+      <c r="B40" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="C40" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="D40" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="E40" s="1" t="s">
+        <v>247</v>
+      </c>
+      <c r="F40" s="1" t="s">
+        <v>248</v>
+      </c>
+      <c r="G40" s="1" t="s">
+        <v>344</v>
+      </c>
+      <c r="H40" s="1" t="s">
+        <v>345</v>
+      </c>
+    </row>
+    <row r="41" spans="1:8">
+      <c r="A41" s="1" t="s">
+        <v>146</v>
+      </c>
+      <c r="B41" s="1" t="s">
+        <v>333</v>
+      </c>
+      <c r="C41" s="1" t="s">
+        <v>147</v>
+      </c>
+      <c r="D41" s="1" t="s">
+        <v>148</v>
+      </c>
+      <c r="E41" s="1" t="s">
+        <v>249</v>
+      </c>
+      <c r="F41" s="1" t="s">
+        <v>250</v>
+      </c>
+      <c r="G41" s="1" t="s">
+        <v>346</v>
+      </c>
+      <c r="H41" s="1" t="s">
+        <v>347</v>
+      </c>
+    </row>
+    <row r="42" spans="1:8">
+      <c r="A42" s="1" t="s">
+        <v>150</v>
+      </c>
+      <c r="B42" s="1" t="s">
+        <v>180</v>
+      </c>
+      <c r="C42" s="1" t="s">
+        <v>151</v>
+      </c>
+      <c r="D42" s="1" t="s">
+        <v>152</v>
+      </c>
+      <c r="E42" s="1" t="s">
+        <v>251</v>
+      </c>
+      <c r="F42" s="1" t="s">
+        <v>252</v>
+      </c>
+      <c r="G42" s="1" t="s">
+        <v>348</v>
+      </c>
+      <c r="H42" s="1" t="s">
+        <v>349</v>
+      </c>
+    </row>
+    <row r="43" spans="1:8">
+      <c r="A43" s="1" t="s">
+        <v>153</v>
+      </c>
+      <c r="B43" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="C43" s="1" t="s">
+        <v>154</v>
+      </c>
+      <c r="D43" s="1" t="s">
+        <v>155</v>
+      </c>
+      <c r="E43" s="1" t="s">
+        <v>253</v>
+      </c>
+      <c r="F43" s="1" t="s">
+        <v>254</v>
+      </c>
+      <c r="G43" s="1" t="s">
+        <v>350</v>
+      </c>
+      <c r="H43" s="1" t="s">
+        <v>351</v>
+      </c>
+    </row>
+    <row r="44" spans="1:8">
+      <c r="A44" s="1" t="s">
+        <v>156</v>
+      </c>
+      <c r="B44" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="C44" s="1" t="s">
+        <v>157</v>
+      </c>
+      <c r="D44" s="1" t="s">
+        <v>158</v>
+      </c>
+      <c r="E44" s="1" t="s">
+        <v>256</v>
+      </c>
+      <c r="F44" s="1" t="s">
+        <v>257</v>
+      </c>
+      <c r="G44" s="1" t="s">
+        <v>282</v>
+      </c>
+      <c r="H44" s="1" t="s">
+        <v>352</v>
+      </c>
+    </row>
+    <row r="45" spans="1:8">
+      <c r="A45" s="1" t="s">
+        <v>159</v>
+      </c>
+      <c r="B45" s="1" t="s">
+        <v>211</v>
+      </c>
+      <c r="C45" s="1" t="s">
+        <v>160</v>
+      </c>
+      <c r="D45" s="1" t="s">
+        <v>161</v>
+      </c>
+      <c r="E45" s="1" t="s">
+        <v>259</v>
+      </c>
+      <c r="F45" s="1" t="s">
+        <v>260</v>
+      </c>
+      <c r="G45" s="1" t="s">
+        <v>353</v>
+      </c>
+      <c r="H45" s="1" t="s">
+        <v>354</v>
       </c>
     </row>
   </sheetData>
